--- a/osquery_ecs_project.xlsx
+++ b/osquery_ecs_project.xlsx
@@ -18,6 +18,19 @@
     <sheet state="visible" name="npm_packages" sheetId="13" r:id="rId16"/>
     <sheet state="visible" name="launchd" sheetId="14" r:id="rId17"/>
     <sheet state="visible" name="startup_items" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="alf" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="alf_exceptions" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="alf_explicit_auths" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="apt_sources" sheetId="19" r:id="rId22"/>
+    <sheet state="visible" name="alf_services" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="crashes" sheetId="21" r:id="rId24"/>
+    <sheet state="visible" name="signature" sheetId="22" r:id="rId25"/>
+    <sheet state="visible" name="xprotect_entries" sheetId="23" r:id="rId26"/>
+    <sheet state="visible" name="xprotect_meta" sheetId="24" r:id="rId27"/>
+    <sheet state="visible" name="xprotect_reports" sheetId="25" r:id="rId28"/>
+    <sheet state="visible" name="apps" sheetId="26" r:id="rId29"/>
+    <sheet state="visible" name="processes" sheetId="27" r:id="rId30"/>
+    <sheet state="visible" name="listening_ports" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="760">
   <si>
     <t>Osquery Field Name</t>
   </si>
@@ -1330,6 +1343,981 @@
   </si>
   <si>
     <t>The user associated with the startup item</t>
+  </si>
+  <si>
+    <t>----------------------------</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------</t>
+  </si>
+  <si>
+    <t>allow_signed_enabled</t>
+  </si>
+  <si>
+    <t>Indicates whether allow signed mode is enabled</t>
+  </si>
+  <si>
+    <t>firewall_unload</t>
+  </si>
+  <si>
+    <t>Indicates whether firewall unloading is enabled</t>
+  </si>
+  <si>
+    <t>global_state</t>
+  </si>
+  <si>
+    <t>Indicates the state of the firewall</t>
+  </si>
+  <si>
+    <t>logging_enabled</t>
+  </si>
+  <si>
+    <t>Indicates whether logging mode is enabled</t>
+  </si>
+  <si>
+    <t>logging_option</t>
+  </si>
+  <si>
+    <t>Indicates the firewall logging option</t>
+  </si>
+  <si>
+    <t>stealth_enabled</t>
+  </si>
+  <si>
+    <t>Indicates whether stealth mode is enabled</t>
+  </si>
+  <si>
+    <t>Application Layer Firewall version</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Path to the executable that is excepted</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>exception_state</t>
+  </si>
+  <si>
+    <t>Firewall exception state: 1 (Enabled) or 0 (Disabled)</t>
+  </si>
+  <si>
+    <t>----------</t>
+  </si>
+  <si>
+    <t>-------------------------------------------</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>Name of the process explicitly allowed to perform networking.</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>apt.name</t>
+  </si>
+  <si>
+    <t>apt.source</t>
+  </si>
+  <si>
+    <t>Source file</t>
+  </si>
+  <si>
+    <t>base_uri</t>
+  </si>
+  <si>
+    <t>apt.base_uri</t>
+  </si>
+  <si>
+    <t>Repository base URI</t>
+  </si>
+  <si>
+    <t>apt.release</t>
+  </si>
+  <si>
+    <t>Release name</t>
+  </si>
+  <si>
+    <t>apt.version</t>
+  </si>
+  <si>
+    <t>Repository source version</t>
+  </si>
+  <si>
+    <t>apt.maintainer</t>
+  </si>
+  <si>
+    <t>Repository maintainer</t>
+  </si>
+  <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>apt.components</t>
+  </si>
+  <si>
+    <t>Repository components</t>
+  </si>
+  <si>
+    <t>architectures</t>
+  </si>
+  <si>
+    <t>apt.architectures</t>
+  </si>
+  <si>
+    <t>Repository architectures</t>
+  </si>
+  <si>
+    <t>Pids that contain a namespace (Linux only, not applicable to ECS)</t>
+  </si>
+  <si>
+    <t>screen_sharing</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>Whether screen sharing is allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>file_sharing</t>
+  </si>
+  <si>
+    <t>Whether file sharing is allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>printer_sharing</t>
+  </si>
+  <si>
+    <t>Whether printer sharing is allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>remote_login</t>
+  </si>
+  <si>
+    <t>Whether remote login is allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>remote_management</t>
+  </si>
+  <si>
+    <t>Whether remote management is allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>remote_apple_events</t>
+  </si>
+  <si>
+    <t>Whether remote Apple events are allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>internet_sharing</t>
+  </si>
+  <si>
+    <t>Whether internet sharing is allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>bluetooth_sharing</t>
+  </si>
+  <si>
+    <t>Whether Bluetooth sharing is allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>disc_sharing</t>
+  </si>
+  <si>
+    <t>Whether disc sharing is allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>content_caching</t>
+  </si>
+  <si>
+    <t>Whether content caching is allowed by the application layer firewall</t>
+  </si>
+  <si>
+    <t>event.dataset</t>
+  </si>
+  <si>
+    <t>Type of crash log</t>
+  </si>
+  <si>
+    <t>Process (or thread) ID of the crashed process</t>
+  </si>
+  <si>
+    <t>process.executable</t>
+  </si>
+  <si>
+    <t>Path to the crashed process</t>
+  </si>
+  <si>
+    <t>crash_path</t>
+  </si>
+  <si>
+    <t>system.syslog.file.path</t>
+  </si>
+  <si>
+    <t>Location of log file</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>process.name</t>
+  </si>
+  <si>
+    <t>Identifier of the crashed process</t>
+  </si>
+  <si>
+    <t>process.version</t>
+  </si>
+  <si>
+    <t>Version info of the crashed process</t>
+  </si>
+  <si>
+    <t>process.ppid</t>
+  </si>
+  <si>
+    <t>Parent PID of the crashed process</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>process.parent.executable</t>
+  </si>
+  <si>
+    <t>Process responsible for the crashed process</t>
+  </si>
+  <si>
+    <t>User ID of the crashed process</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Date/Time at which the crash occurred</t>
+  </si>
+  <si>
+    <t>crashed_thread</t>
+  </si>
+  <si>
+    <t>system.thread.id</t>
+  </si>
+  <si>
+    <t>Thread ID which crashed</t>
+  </si>
+  <si>
+    <t>stack_trace</t>
+  </si>
+  <si>
+    <t>error.stack_trace</t>
+  </si>
+  <si>
+    <t>Most recent frame from the stack trace</t>
+  </si>
+  <si>
+    <t>exception_type</t>
+  </si>
+  <si>
+    <t>error.type</t>
+  </si>
+  <si>
+    <t>Exception type of the crash</t>
+  </si>
+  <si>
+    <t>exception_codes</t>
+  </si>
+  <si>
+    <t>error.code</t>
+  </si>
+  <si>
+    <t>Exception codes from the crash</t>
+  </si>
+  <si>
+    <t>exception_notes</t>
+  </si>
+  <si>
+    <t>error.message</t>
+  </si>
+  <si>
+    <t>Exception notes from the crash</t>
+  </si>
+  <si>
+    <t>registers</t>
+  </si>
+  <si>
+    <t>system.process.cpu.start_time</t>
+  </si>
+  <si>
+    <t>The value of the system registers</t>
+  </si>
+  <si>
+    <t>-----------------</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>signature.path</t>
+  </si>
+  <si>
+    <t>The path or directory of the file</t>
+  </si>
+  <si>
+    <t>hash_resources</t>
+  </si>
+  <si>
+    <t>signature.hash_resources</t>
+  </si>
+  <si>
+    <t>Indicates whether or not to hash resources</t>
+  </si>
+  <si>
+    <t>signature.arch</t>
+  </si>
+  <si>
+    <t>The architecture of the signed code, if applicable</t>
+  </si>
+  <si>
+    <t>signed</t>
+  </si>
+  <si>
+    <t>signature.signed</t>
+  </si>
+  <si>
+    <t>Indicates if the file is signed (1) or not signed (0)</t>
+  </si>
+  <si>
+    <t>signature.identifier</t>
+  </si>
+  <si>
+    <t>The signing identifier sealed into the signature</t>
+  </si>
+  <si>
+    <t>cdhash</t>
+  </si>
+  <si>
+    <t>signature.cdhash</t>
+  </si>
+  <si>
+    <t>The hash of the application Code Directory</t>
+  </si>
+  <si>
+    <t>team_identifier</t>
+  </si>
+  <si>
+    <t>signature.team_identifier</t>
+  </si>
+  <si>
+    <t>The team signing identifier sealed into the signature</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>signature.authority</t>
+  </si>
+  <si>
+    <t>The certificate Common Name</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>xprotect_entries.name</t>
+  </si>
+  <si>
+    <t>Description of XProtected malware</t>
+  </si>
+  <si>
+    <t>launch_type</t>
+  </si>
+  <si>
+    <t>xprotect_entries.launch_type</t>
+  </si>
+  <si>
+    <t>Launch services content type</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>xprotect_entries.identity</t>
+  </si>
+  <si>
+    <t>XProtect identity (SHA1) of content</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>xprotect_entries.filename</t>
+  </si>
+  <si>
+    <t>Use this file name to match</t>
+  </si>
+  <si>
+    <t>filetype</t>
+  </si>
+  <si>
+    <t>xprotect_entries.filetype</t>
+  </si>
+  <si>
+    <t>Use this file type to match</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>xprotect_entries.optional</t>
+  </si>
+  <si>
+    <t>Match any of the identities/patterns for this XProtect name</t>
+  </si>
+  <si>
+    <t>uses_pattern</t>
+  </si>
+  <si>
+    <t>xprotect_entries.uses_pattern</t>
+  </si>
+  <si>
+    <t>Uses a match pattern instead of identity</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>xprotect_meta.identifier</t>
+  </si>
+  <si>
+    <t>Browser plugin or extension identifier</t>
+  </si>
+  <si>
+    <t>xprotect_meta.type</t>
+  </si>
+  <si>
+    <t>Either plugin or extension</t>
+  </si>
+  <si>
+    <t>developer_id</t>
+  </si>
+  <si>
+    <t>xprotect_meta.developer_id</t>
+  </si>
+  <si>
+    <t>Developer identity (SHA1) of extension</t>
+  </si>
+  <si>
+    <t>min_version</t>
+  </si>
+  <si>
+    <t>xprotect_meta.min_version</t>
+  </si>
+  <si>
+    <t>The minimum allowed plugin version</t>
+  </si>
+  <si>
+    <t>xprotect_reports.name</t>
+  </si>
+  <si>
+    <t>Description of XProtect malware</t>
+  </si>
+  <si>
+    <t>user_action</t>
+  </si>
+  <si>
+    <t>xprotect_reports.user_action</t>
+  </si>
+  <si>
+    <t>Action taken by user after prompted</t>
+  </si>
+  <si>
+    <t>xprotect_reports.time</t>
+  </si>
+  <si>
+    <t>Quarantine alert time</t>
+  </si>
+  <si>
+    <t>--------------------------</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>apps.name</t>
+  </si>
+  <si>
+    <t>Name of the Name.app folder</t>
+  </si>
+  <si>
+    <t>apps.path</t>
+  </si>
+  <si>
+    <t>Absolute and full Name.app path, indexed for searching</t>
+  </si>
+  <si>
+    <t>bundle_executable</t>
+  </si>
+  <si>
+    <t>apps.bundle_executable</t>
+  </si>
+  <si>
+    <t>Info properties CFBundleExecutable label</t>
+  </si>
+  <si>
+    <t>bundle_identifier</t>
+  </si>
+  <si>
+    <t>apps.bundle_identifier</t>
+  </si>
+  <si>
+    <t>Info properties CFBundleIdentifier label</t>
+  </si>
+  <si>
+    <t>bundle_name</t>
+  </si>
+  <si>
+    <t>apps.bundle_name</t>
+  </si>
+  <si>
+    <t>Info properties CFBundleName label</t>
+  </si>
+  <si>
+    <t>bundle_short_version</t>
+  </si>
+  <si>
+    <t>apps.bundle_short_version</t>
+  </si>
+  <si>
+    <t>Info properties CFBundleShortVersionString label</t>
+  </si>
+  <si>
+    <t>bundle_version</t>
+  </si>
+  <si>
+    <t>apps.bundle_version</t>
+  </si>
+  <si>
+    <t>Info properties CFBundleVersion label</t>
+  </si>
+  <si>
+    <t>bundle_package_type</t>
+  </si>
+  <si>
+    <t>apps.bundle_package_type</t>
+  </si>
+  <si>
+    <t>Info properties CFBundlePackageType label</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>apps.environment</t>
+  </si>
+  <si>
+    <t>Application-set environment variables</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>apps.element</t>
+  </si>
+  <si>
+    <t>Does the app identify as a background agent</t>
+  </si>
+  <si>
+    <t>compiler</t>
+  </si>
+  <si>
+    <t>apps.compiler</t>
+  </si>
+  <si>
+    <t>Info properties DTCompiler label</t>
+  </si>
+  <si>
+    <t>development_region</t>
+  </si>
+  <si>
+    <t>apps.development_region</t>
+  </si>
+  <si>
+    <t>Info properties CFBundleDevelopmentRegion label</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>apps.display_name</t>
+  </si>
+  <si>
+    <t>Info properties CFBundleDisplayName label</t>
+  </si>
+  <si>
+    <t>info_string</t>
+  </si>
+  <si>
+    <t>apps.info_string</t>
+  </si>
+  <si>
+    <t>Info properties CFBundleGetInfoString label</t>
+  </si>
+  <si>
+    <t>minimum_system_version</t>
+  </si>
+  <si>
+    <t>apps.minimum_system_version</t>
+  </si>
+  <si>
+    <t>Minimum version of macOS required for the app to run</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>apps.category</t>
+  </si>
+  <si>
+    <t>The UTI that categorizes the app for the App Store</t>
+  </si>
+  <si>
+    <t>applescript_enabled</t>
+  </si>
+  <si>
+    <t>apps.applescript_enabled</t>
+  </si>
+  <si>
+    <t>Info properties NSAppleScriptEnabled label</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>apps.copyright</t>
+  </si>
+  <si>
+    <t>Info properties NSHumanReadableCopyright label</t>
+  </si>
+  <si>
+    <t>last_opened_time</t>
+  </si>
+  <si>
+    <t>apps.last_opened_time</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>The time that the app was last used</t>
+  </si>
+  <si>
+    <t>The process path or shorthand argv[0]</t>
+  </si>
+  <si>
+    <t>Path to executed binary</t>
+  </si>
+  <si>
+    <t>process.command_line</t>
+  </si>
+  <si>
+    <t>Complete argv</t>
+  </si>
+  <si>
+    <t>process.state</t>
+  </si>
+  <si>
+    <t>Process state</t>
+  </si>
+  <si>
+    <t>process.cwd</t>
+  </si>
+  <si>
+    <t>Process current working directory</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>process.root</t>
+  </si>
+  <si>
+    <t>Process virtual root directory</t>
+  </si>
+  <si>
+    <t>process.real_uid</t>
+  </si>
+  <si>
+    <t>Unsigned user ID</t>
+  </si>
+  <si>
+    <t>process.real_gid</t>
+  </si>
+  <si>
+    <t>Unsigned group ID</t>
+  </si>
+  <si>
+    <t>process.effective_uid</t>
+  </si>
+  <si>
+    <t>Unsigned effective user ID</t>
+  </si>
+  <si>
+    <t>process.effective_gid</t>
+  </si>
+  <si>
+    <t>Unsigned effective group ID</t>
+  </si>
+  <si>
+    <t>suid</t>
+  </si>
+  <si>
+    <t>process.saved_uid</t>
+  </si>
+  <si>
+    <t>Unsigned saved user ID</t>
+  </si>
+  <si>
+    <t>sgid</t>
+  </si>
+  <si>
+    <t>process.saved_gid</t>
+  </si>
+  <si>
+    <t>Unsigned saved group ID</t>
+  </si>
+  <si>
+    <t>on_disk</t>
+  </si>
+  <si>
+    <t>process.on_disk</t>
+  </si>
+  <si>
+    <t>The process path exists yes=1, no=0, unknown=-1</t>
+  </si>
+  <si>
+    <t>wired_size</t>
+  </si>
+  <si>
+    <t>process.memory.wired</t>
+  </si>
+  <si>
+    <t>Bytes of unpageable memory used by process</t>
+  </si>
+  <si>
+    <t>resident_size</t>
+  </si>
+  <si>
+    <t>process.memory.rss</t>
+  </si>
+  <si>
+    <t>Bytes of private memory used by process</t>
+  </si>
+  <si>
+    <t>total_size</t>
+  </si>
+  <si>
+    <t>process.memory.size</t>
+  </si>
+  <si>
+    <t>Total virtual memory size, also known as phys_footprint</t>
+  </si>
+  <si>
+    <t>user_time</t>
+  </si>
+  <si>
+    <t>process.cpu.user</t>
+  </si>
+  <si>
+    <t>CPU time in milliseconds spent in user space</t>
+  </si>
+  <si>
+    <t>system_time</t>
+  </si>
+  <si>
+    <t>process.cpu.system</t>
+  </si>
+  <si>
+    <t>CPU time in milliseconds spent in kernel space</t>
+  </si>
+  <si>
+    <t>disk_bytes_read</t>
+  </si>
+  <si>
+    <t>process.disk.read</t>
+  </si>
+  <si>
+    <t>Bytes read from disk</t>
+  </si>
+  <si>
+    <t>disk_bytes_written</t>
+  </si>
+  <si>
+    <t>process.disk.write</t>
+  </si>
+  <si>
+    <t>Bytes written to disk</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>process.start</t>
+  </si>
+  <si>
+    <t>Process start time in seconds since Epoch, in case of error -1</t>
+  </si>
+  <si>
+    <t>Process parent's PID</t>
+  </si>
+  <si>
+    <t>pgroup</t>
+  </si>
+  <si>
+    <t>process.pgid</t>
+  </si>
+  <si>
+    <t>Process group</t>
+  </si>
+  <si>
+    <t>threads</t>
+  </si>
+  <si>
+    <t>process.thread_count</t>
+  </si>
+  <si>
+    <t>Number of threads used by process</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>process.nice</t>
+  </si>
+  <si>
+    <t>Process nice level (-20 to 20, default 0)</t>
+  </si>
+  <si>
+    <t>elevated_token</t>
+  </si>
+  <si>
+    <t>process.elevated_token</t>
+  </si>
+  <si>
+    <t>Process uses elevated token yes=1, no=0. (Windows only)</t>
+  </si>
+  <si>
+    <t>secure_process</t>
+  </si>
+  <si>
+    <t>process.secure</t>
+  </si>
+  <si>
+    <t>Process is secure (IUM) yes=1, no=0. (Windows only)</t>
+  </si>
+  <si>
+    <t>protection_type</t>
+  </si>
+  <si>
+    <t>process.protection</t>
+  </si>
+  <si>
+    <t>The protection type of the process. (Windows only)</t>
+  </si>
+  <si>
+    <t>virtual_process</t>
+  </si>
+  <si>
+    <t>process.virtual</t>
+  </si>
+  <si>
+    <t>Process is virtual (e.g. System, Registry, vmmem) yes=1, no=0. (Windows only)</t>
+  </si>
+  <si>
+    <t>elapsed_time</t>
+  </si>
+  <si>
+    <t>process.elapsed_time</t>
+  </si>
+  <si>
+    <t>Elapsed time in seconds this process has been running. (Windows only)</t>
+  </si>
+  <si>
+    <t>handle_count</t>
+  </si>
+  <si>
+    <t>process.handle_count</t>
+  </si>
+  <si>
+    <t>Total number of handles that</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>network.port</t>
+  </si>
+  <si>
+    <t>Transport layer port</t>
+  </si>
+  <si>
+    <t>network.transport</t>
+  </si>
+  <si>
+    <t>Transport protocol (TCP/UDP)</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>network.type</t>
+  </si>
+  <si>
+    <t>Network protocol (IPv4, IPv6)</t>
+  </si>
+  <si>
+    <t>network.address</t>
+  </si>
+  <si>
+    <t>Specific address for bind</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>system.file.descriptor</t>
+  </si>
+  <si>
+    <t>Socket file descriptor number</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>system.socket.id</t>
+  </si>
+  <si>
+    <t>Socket handle or inode number</t>
+  </si>
+  <si>
+    <t>system.socket.path</t>
+  </si>
+  <si>
+    <t>Path for UNIX domain sockets</t>
+  </si>
+  <si>
+    <t>net_namespace</t>
+  </si>
+  <si>
+    <t>system.network.namespace</t>
+  </si>
+  <si>
+    <t>The inode number of the network namespace (Linux only)</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +2408,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3235,6 +4275,467 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="17.5"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="36.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="13.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="39.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="13.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="46.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col customWidth="1" min="2" max="2" width="13.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="49.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -3410,6 +4911,1965 @@
     <hyperlink r:id="rId2" ref="B4"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="17.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="55.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="23.5"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="34.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B11"/>
+    <hyperlink r:id="rId2" ref="B13"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="20.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="53.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="23.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="46.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="21.63"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="41.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="22.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="27.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.25"/>
+    <col customWidth="1" min="2" max="2" width="24.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="57.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="18.63"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="60.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="21.63"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="43.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B9"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/osquery_ecs_project.xlsx
+++ b/osquery_ecs_project.xlsx
@@ -31,6 +31,25 @@
     <sheet state="visible" name="apps" sheetId="26" r:id="rId29"/>
     <sheet state="visible" name="processes" sheetId="27" r:id="rId30"/>
     <sheet state="visible" name="listening_ports" sheetId="28" r:id="rId31"/>
+    <sheet state="visible" name="gatekeeper" sheetId="29" r:id="rId32"/>
+    <sheet state="visible" name="gatekeeper_apps" sheetId="30" r:id="rId33"/>
+    <sheet state="visible" name="kernel_extensions" sheetId="31" r:id="rId34"/>
+    <sheet state="visible" name="sip_config" sheetId="32" r:id="rId35"/>
+    <sheet state="visible" name="sandboxes" sheetId="33" r:id="rId36"/>
+    <sheet state="visible" name="nfs_shares" sheetId="34" r:id="rId37"/>
+    <sheet state="visible" name="sharing_preferences" sheetId="35" r:id="rId38"/>
+    <sheet state="visible" name="certificates" sheetId="36" r:id="rId39"/>
+    <sheet state="visible" name="homebrew_packages" sheetId="37" r:id="rId40"/>
+    <sheet state="visible" name="preferences" sheetId="38" r:id="rId41"/>
+    <sheet state="visible" name="event_taps" sheetId="39" r:id="rId42"/>
+    <sheet state="visible" name="package_install_history" sheetId="40" r:id="rId43"/>
+    <sheet state="visible" name="package_receipts" sheetId="41" r:id="rId44"/>
+    <sheet state="visible" name="quicklook_cache" sheetId="42" r:id="rId45"/>
+    <sheet state="visible" name="app_schemas" sheetId="43" r:id="rId46"/>
+    <sheet state="visible" name="authorization_mechanisims" sheetId="44" r:id="rId47"/>
+    <sheet state="visible" name="authorizations" sheetId="45" r:id="rId48"/>
+    <sheet state="visible" name="device_firmware" sheetId="46" r:id="rId49"/>
+    <sheet state="visible" name="kernel_panics" sheetId="47" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -38,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1089">
   <si>
     <t>Osquery Field Name</t>
   </si>
@@ -2318,6 +2337,993 @@
   </si>
   <si>
     <t>The inode number of the network namespace (Linux only)</t>
+  </si>
+  <si>
+    <t>------------------------</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>assessments_enabled</t>
+  </si>
+  <si>
+    <t>gatekeeper.enabled</t>
+  </si>
+  <si>
+    <t>Indicates whether Gatekeeper is enabled (1) or disabled (0)</t>
+  </si>
+  <si>
+    <t>dev_id_enabled</t>
+  </si>
+  <si>
+    <t>gatekeeper.dev_enabled</t>
+  </si>
+  <si>
+    <t>Indicates whether Gatekeeper allows execution from identified developers (1) or not (0)</t>
+  </si>
+  <si>
+    <t>gatekeeper.version</t>
+  </si>
+  <si>
+    <t>Version of Gatekeeper's gke.bundle</t>
+  </si>
+  <si>
+    <t>opaque_version</t>
+  </si>
+  <si>
+    <t>gatekeeper.opaque_version</t>
+  </si>
+  <si>
+    <t>Version of Gatekeeper's gkopaque.bundle</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Path of executable allowed to run</t>
+  </si>
+  <si>
+    <t>requirement</t>
+  </si>
+  <si>
+    <t>Code signing requirement language</t>
+  </si>
+  <si>
+    <t>gatekeeper.ctime</t>
+  </si>
+  <si>
+    <t>Last change time of the Gatekeeper-approved app</t>
+  </si>
+  <si>
+    <t>gatekeeper.mtime</t>
+  </si>
+  <si>
+    <t>Last modification time of the Gatekeeper-approved app</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>kext.idx</t>
+  </si>
+  <si>
+    <t>Extension load tag or index</t>
+  </si>
+  <si>
+    <t>refs</t>
+  </si>
+  <si>
+    <t>kext.refs</t>
+  </si>
+  <si>
+    <t>Reference count</t>
+  </si>
+  <si>
+    <t>kext.size</t>
+  </si>
+  <si>
+    <t>Bytes of wired memory used by extension</t>
+  </si>
+  <si>
+    <t>kext.name</t>
+  </si>
+  <si>
+    <t>Extension label</t>
+  </si>
+  <si>
+    <t>kext.version</t>
+  </si>
+  <si>
+    <t>Extension version</t>
+  </si>
+  <si>
+    <t>linked_against</t>
+  </si>
+  <si>
+    <t>kext.linked_against</t>
+  </si>
+  <si>
+    <t>Indexes of extensions this extension is linked against</t>
+  </si>
+  <si>
+    <t>kext.path</t>
+  </si>
+  <si>
+    <t>Optional path to extension bundle</t>
+  </si>
+  <si>
+    <t>config_flag</t>
+  </si>
+  <si>
+    <t>sip_config.config_flag</t>
+  </si>
+  <si>
+    <t>The System Integrity Protection config flag</t>
+  </si>
+  <si>
+    <t>sip_config.enabled</t>
+  </si>
+  <si>
+    <t>1 if this configuration is enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>enabled_nvram</t>
+  </si>
+  <si>
+    <t>sip_config.enabled_nvram</t>
+  </si>
+  <si>
+    <t>---------------------</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>sandboxes.label</t>
+  </si>
+  <si>
+    <t>UTI-format bundle or label ID</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>sandboxes.user</t>
+  </si>
+  <si>
+    <t>Sandbox owner</t>
+  </si>
+  <si>
+    <t>sandboxes.enabled</t>
+  </si>
+  <si>
+    <t>Application sandboxings enabled on container</t>
+  </si>
+  <si>
+    <t>build_id</t>
+  </si>
+  <si>
+    <t>sandboxes.build_id</t>
+  </si>
+  <si>
+    <t>Sandbox-specific identifier</t>
+  </si>
+  <si>
+    <t>bundle_path</t>
+  </si>
+  <si>
+    <t>sandboxes.bundle_path</t>
+  </si>
+  <si>
+    <t>Application bundle used by the sandbox</t>
+  </si>
+  <si>
+    <t>sandboxes.path</t>
+  </si>
+  <si>
+    <t>Path to sandbox container directory</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>nfs_shares.share.path</t>
+  </si>
+  <si>
+    <t>Filesystem path to the share</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>nfs_shares.options</t>
+  </si>
+  <si>
+    <t>Options string set on the export share</t>
+  </si>
+  <si>
+    <t>readonly</t>
+  </si>
+  <si>
+    <t>nfs_shares.readonly</t>
+  </si>
+  <si>
+    <t>1 if the share is exported readonly else 0</t>
+  </si>
+  <si>
+    <t>-------------------------------</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>sharing_preferences.screen_sharing</t>
+  </si>
+  <si>
+    <t>1 if screen sharing is enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>sharing_preferences.file_sharing</t>
+  </si>
+  <si>
+    <t>1 if file sharing is enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>sharing_preferences.printer_sharing</t>
+  </si>
+  <si>
+    <t>1 if printer sharing is enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>sharing_preferences.remote_login</t>
+  </si>
+  <si>
+    <t>1 if remote login is enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>sharing_preferences.remote_management</t>
+  </si>
+  <si>
+    <t>1 if remote management is enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>sharing_preferences.remote_apple_events</t>
+  </si>
+  <si>
+    <t>1 if remote apple events are enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>sharing_preferences.internet_sharing</t>
+  </si>
+  <si>
+    <t>1 if internet sharing is enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>sharing_preferences.bluetooth_sharing</t>
+  </si>
+  <si>
+    <t>1 if bluetooth sharing is enabled for any user, otherwise 0</t>
+  </si>
+  <si>
+    <t>sharing_preferences.disc_sharing</t>
+  </si>
+  <si>
+    <t>1 if CD or DVD sharing is enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>sharing_preferences.content_caching</t>
+  </si>
+  <si>
+    <t>1 if content caching is enabled, otherwise 0</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>subject.common_name</t>
+  </si>
+  <si>
+    <t>Certificate CommonName</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Certificate distinguished name (deprecated, use subject2)</t>
+  </si>
+  <si>
+    <t>issuer</t>
+  </si>
+  <si>
+    <t>Certificate issuer distinguished name (deprecated, use issuer2)</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>x509.is_ca</t>
+  </si>
+  <si>
+    <t>1 if CA: true (certificate is an authority) else 0</t>
+  </si>
+  <si>
+    <t>self_signed</t>
+  </si>
+  <si>
+    <t>x509.self_signed</t>
+  </si>
+  <si>
+    <t>1 if self-signed, else 0</t>
+  </si>
+  <si>
+    <t>not_valid_before</t>
+  </si>
+  <si>
+    <t>x509.not_valid_before</t>
+  </si>
+  <si>
+    <t>Lower bound of valid date</t>
+  </si>
+  <si>
+    <t>not_valid_after</t>
+  </si>
+  <si>
+    <t>x509.not_valid_after</t>
+  </si>
+  <si>
+    <t>Certificate expiration data</t>
+  </si>
+  <si>
+    <t>signing_algorithm</t>
+  </si>
+  <si>
+    <t>x509.signature_algorithm.name</t>
+  </si>
+  <si>
+    <t>Signing algorithm used</t>
+  </si>
+  <si>
+    <t>key_algorithm</t>
+  </si>
+  <si>
+    <t>x509.public_key_algorithm.name</t>
+  </si>
+  <si>
+    <t>Key algorithm used</t>
+  </si>
+  <si>
+    <t>key_strength</t>
+  </si>
+  <si>
+    <t>x509.public_key_size</t>
+  </si>
+  <si>
+    <t>Key size used for RSA/DSA, or curve name</t>
+  </si>
+  <si>
+    <t>key_usage</t>
+  </si>
+  <si>
+    <t>x509.key_usage</t>
+  </si>
+  <si>
+    <t>Certificate key usage and extended key usage</t>
+  </si>
+  <si>
+    <t>subject_key_id</t>
+  </si>
+  <si>
+    <t>x509.subject_key_id</t>
+  </si>
+  <si>
+    <t>SKID an optionally included SHA1</t>
+  </si>
+  <si>
+    <t>authority_key_id</t>
+  </si>
+  <si>
+    <t>x509.authority_key_id</t>
+  </si>
+  <si>
+    <t>AKID an optionally included SHA1</t>
+  </si>
+  <si>
+    <t>SHA1 hash of the raw certificate contents</t>
+  </si>
+  <si>
+    <t>Path to Keychain or PEM bundle</t>
+  </si>
+  <si>
+    <t>x509.serial_number</t>
+  </si>
+  <si>
+    <t>Certificate serial number</t>
+  </si>
+  <si>
+    <t>sid</t>
+  </si>
+  <si>
+    <t>SID (Windows only)</t>
+  </si>
+  <si>
+    <t>store_location</t>
+  </si>
+  <si>
+    <t>Certificate system store location (Windows only)</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>Certificate system store (Windows only)</t>
+  </si>
+  <si>
+    <t>Username (Windows only)</t>
+  </si>
+  <si>
+    <t>store_id</t>
+  </si>
+  <si>
+    <t>Exists for service/user stores. Contains raw store id provided by WinAPI. (Windows only)</t>
+  </si>
+  <si>
+    <t>issuer2</t>
+  </si>
+  <si>
+    <t>x509.issuer_dn</t>
+  </si>
+  <si>
+    <t>Certificate issuer distinguished name (POSIX only)</t>
+  </si>
+  <si>
+    <t>subject2</t>
+  </si>
+  <si>
+    <t>x509.subject_dn</t>
+  </si>
+  <si>
+    <t>Certificate distinguished name (POSIX only)</t>
+  </si>
+  <si>
+    <t>Package install path</t>
+  </si>
+  <si>
+    <t>Current 'linked' version</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>Homebrew install prefix (Not mapped to ECS field, hidden in schema)</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>preferences.domain</t>
+  </si>
+  <si>
+    <t>Application ID usually in com.name.product format</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>preferences.key</t>
+  </si>
+  <si>
+    <t>Preference top-level key</t>
+  </si>
+  <si>
+    <t>subkey</t>
+  </si>
+  <si>
+    <t>preferences.subkey</t>
+  </si>
+  <si>
+    <t>Intemediate key path, includes lists/dicts</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>preferences.value</t>
+  </si>
+  <si>
+    <t>String value of most CF types</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>preferences.forced</t>
+  </si>
+  <si>
+    <t>1 if the value is forced/managed, else 0</t>
+  </si>
+  <si>
+    <t>preferences.username</t>
+  </si>
+  <si>
+    <t>(optional) read preferences for a specific user</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>preferences.host</t>
+  </si>
+  <si>
+    <t>current' or 'any' host, where 'current' takes precedence</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>event_taps.enabled</t>
+  </si>
+  <si>
+    <t>Indicates if the event tap is enabled (1) or disabled (0).</t>
+  </si>
+  <si>
+    <t>event_tap_id</t>
+  </si>
+  <si>
+    <t>event_taps.id</t>
+  </si>
+  <si>
+    <t>A unique identifier for the event tap.</t>
+  </si>
+  <si>
+    <t>event_tapped</t>
+  </si>
+  <si>
+    <t>event_taps.event</t>
+  </si>
+  <si>
+    <t>The mask that identifies the set of events to be observed.</t>
+  </si>
+  <si>
+    <t>process_being_tapped</t>
+  </si>
+  <si>
+    <t>event_taps.target.pid</t>
+  </si>
+  <si>
+    <t>The process ID of the target application.</t>
+  </si>
+  <si>
+    <t>tapping_process</t>
+  </si>
+  <si>
+    <t>event_taps.source.pid</t>
+  </si>
+  <si>
+    <t>The process ID of the application that created the event tap.</t>
+  </si>
+  <si>
+    <t>package_id</t>
+  </si>
+  <si>
+    <t>packages.id</t>
+  </si>
+  <si>
+    <t>Label packageIdentifiers</t>
+  </si>
+  <si>
+    <t>packages.timestamp</t>
+  </si>
+  <si>
+    <t>Label date as UNIX timestamp</t>
+  </si>
+  <si>
+    <t>packages.name</t>
+  </si>
+  <si>
+    <t>packages.version</t>
+  </si>
+  <si>
+    <t>Package display version</t>
+  </si>
+  <si>
+    <t>packages.install_source</t>
+  </si>
+  <si>
+    <t>Install source: usually the installer process name</t>
+  </si>
+  <si>
+    <t>content_type</t>
+  </si>
+  <si>
+    <t>packages.content_type</t>
+  </si>
+  <si>
+    <t>Package content_type (optional)</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>packages@genPackageInstallHistory</t>
+  </si>
+  <si>
+    <t>package.id</t>
+  </si>
+  <si>
+    <t>Package domain identifier</t>
+  </si>
+  <si>
+    <t>package_filename</t>
+  </si>
+  <si>
+    <t>package.filename</t>
+  </si>
+  <si>
+    <t>Filename of original .pkg file</t>
+  </si>
+  <si>
+    <t>Installed package version</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>package.location</t>
+  </si>
+  <si>
+    <t>Optional relative install path on volume</t>
+  </si>
+  <si>
+    <t>Timestamp of install time</t>
+  </si>
+  <si>
+    <t>installer_name</t>
+  </si>
+  <si>
+    <t>package.installer_name</t>
+  </si>
+  <si>
+    <t>Name of installer process</t>
+  </si>
+  <si>
+    <t>package.path</t>
+  </si>
+  <si>
+    <t>Path of receipt plist</t>
+  </si>
+  <si>
+    <t>Path of file</t>
+  </si>
+  <si>
+    <t>rowid</t>
+  </si>
+  <si>
+    <t>quicklook_cache.rowid</t>
+  </si>
+  <si>
+    <t>Quicklook file rowid key</t>
+  </si>
+  <si>
+    <t>fs_id</t>
+  </si>
+  <si>
+    <t>quicklook_cache.fs_id</t>
+  </si>
+  <si>
+    <t>Quicklook file fs_id key</t>
+  </si>
+  <si>
+    <t>volume_id</t>
+  </si>
+  <si>
+    <t>quicklook_cache.volume_id</t>
+  </si>
+  <si>
+    <t>Parsed volume ID from fs_id</t>
+  </si>
+  <si>
+    <t>inode</t>
+  </si>
+  <si>
+    <t>quicklook_cache.inode</t>
+  </si>
+  <si>
+    <t>Parsed file ID (inode) from fs_id</t>
+  </si>
+  <si>
+    <t>quicklook_cache.mtime</t>
+  </si>
+  <si>
+    <t>Parsed version date field</t>
+  </si>
+  <si>
+    <t>quicklook_cache.size</t>
+  </si>
+  <si>
+    <t>Parsed version size field</t>
+  </si>
+  <si>
+    <t>quicklook_cache.label</t>
+  </si>
+  <si>
+    <t>Parsed version 'gen' field</t>
+  </si>
+  <si>
+    <t>last_hit_date</t>
+  </si>
+  <si>
+    <t>quicklook_cache.last_hit_date</t>
+  </si>
+  <si>
+    <t>Apple date format for last thumbnail cache hit</t>
+  </si>
+  <si>
+    <t>hit_count</t>
+  </si>
+  <si>
+    <t>quicklook_cache.hit_count</t>
+  </si>
+  <si>
+    <t>Number of cache hits on thumbnail</t>
+  </si>
+  <si>
+    <t>icon_mode</t>
+  </si>
+  <si>
+    <t>quicklook_cache.icon_mode</t>
+  </si>
+  <si>
+    <t>Thumbnail icon mode</t>
+  </si>
+  <si>
+    <t>cache_path</t>
+  </si>
+  <si>
+    <t>quicklook_cache.cache_path</t>
+  </si>
+  <si>
+    <t>Path to cache data</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>app_schemes.scheme</t>
+  </si>
+  <si>
+    <t>Name of the scheme/protocol</t>
+  </si>
+  <si>
+    <t>handler</t>
+  </si>
+  <si>
+    <t>app_schemes.handler</t>
+  </si>
+  <si>
+    <t>Application label for the handler</t>
+  </si>
+  <si>
+    <t>app_schemes.enabled</t>
+  </si>
+  <si>
+    <t>1 if this handler is the OS default, else 0</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>app_schemes.external</t>
+  </si>
+  <si>
+    <t>1 if this handler does NOT exist on macOS by default, else 0</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>app_schemes.protected</t>
+  </si>
+  <si>
+    <t>1 if this handler is protected (reserved) by macOS, else 0</t>
+  </si>
+  <si>
+    <t>Label of the authorization right</t>
+  </si>
+  <si>
+    <t>plugin</t>
+  </si>
+  <si>
+    <t>Authorization plugin name</t>
+  </si>
+  <si>
+    <t>mechanism</t>
+  </si>
+  <si>
+    <t>Name of the mechanism that will be called</t>
+  </si>
+  <si>
+    <t>privileged</t>
+  </si>
+  <si>
+    <t>If privileged it will run as root, else as an anonymous user</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>The whole string entry</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.label</t>
+  </si>
+  <si>
+    <t>Item name, usually in reverse domain format</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.modified</t>
+  </si>
+  <si>
+    <t>Label top-level key</t>
+  </si>
+  <si>
+    <t>allow_root</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.allow_root</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.timeout</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.version</t>
+  </si>
+  <si>
+    <t>tries</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.tries</t>
+  </si>
+  <si>
+    <t>authenticate_user</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.authenticate_user</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.shared</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.comment</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.created</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.class</t>
+  </si>
+  <si>
+    <t>session_owner</t>
+  </si>
+  <si>
+    <t>system.audit.authorization.session_owner</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>device_firmware.type</t>
+  </si>
+  <si>
+    <t>Type of device.</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>device_firmware.device</t>
+  </si>
+  <si>
+    <t>The device name.</t>
+  </si>
+  <si>
+    <t>device_firmware.version</t>
+  </si>
+  <si>
+    <t>Firmware version.</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
+  <si>
+    <t>event.original</t>
+  </si>
+  <si>
+    <t>The path to the kernel panic log file</t>
+  </si>
+  <si>
+    <t>The time when the kernel panic occurred</t>
+  </si>
+  <si>
+    <t>Not mapped to ECS as it contains structured data in a string</t>
+  </si>
+  <si>
+    <t>frame_backtrace</t>
+  </si>
+  <si>
+    <t>error.stack</t>
+  </si>
+  <si>
+    <t>A backtrace of the crashed module, similar to a stack trace</t>
+  </si>
+  <si>
+    <t>module_backtrace</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
+    <t>The name of the process corresponding to the crashed thread</t>
+  </si>
+  <si>
+    <t>os_version</t>
+  </si>
+  <si>
+    <t>os.version</t>
+  </si>
+  <si>
+    <t>The version of the operating system</t>
+  </si>
+  <si>
+    <t>kernel_version</t>
+  </si>
+  <si>
+    <t>system.version</t>
+  </si>
+  <si>
+    <t>The version of the system kernel</t>
+  </si>
+  <si>
+    <t>system_model</t>
+  </si>
+  <si>
+    <t>system.model</t>
+  </si>
+  <si>
+    <t>The physical system model, for example 'MacBookPro12,1 (Mac-...)'</t>
+  </si>
+  <si>
+    <t>Not mapped to ECS as it contains structured data in nanoseconds</t>
+  </si>
+  <si>
+    <t>last_loaded</t>
+  </si>
+  <si>
+    <t>last_unloaded</t>
+  </si>
+  <si>
+    <t>Note that the `registers`, `module_backtrace`, `dependencies`, `uptime`, `last_loaded`, and `last_unloaded` columns are not mapped to ECS as they contain structured data in a string. It may be possible to parse some of this data into separate ECS fields, depending on the format of the data.</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +3365,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2370,6 +3376,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2464,11 +3473,87 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing42.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing43.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing44.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing47.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6873,6 +7958,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.63"/>
+    <col customWidth="1" min="2" max="2" width="21.63"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="65.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -7017,6 +8207,1501 @@
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="14.25"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="41.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="40.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="33.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="18.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="35.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="17.5"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="31.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="25.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="66.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="13.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="52.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="17.63"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="41.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.88"/>
+    <col customWidth="1" min="2" max="2" width="17.25"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="45.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B4"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7225,6 +9910,1300 @@
     <hyperlink r:id="rId3" ref="B13"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="18.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="36.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="23.25"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="34.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="18.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="45.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="13.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="43.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="34.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="33.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="19.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="31.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.88"/>
+    <col customWidth="1" min="2" max="2" width="13.38"/>
+    <col customWidth="1" min="3" max="3" width="9.38"/>
+    <col customWidth="1" min="4" max="4" width="51.25"/>
+    <col customWidth="1" min="5" max="26" width="25.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/osquery_ecs_project.xlsx
+++ b/osquery_ecs_project.xlsx
@@ -50,6 +50,35 @@
     <sheet state="visible" name="authorizations" sheetId="45" r:id="rId48"/>
     <sheet state="visible" name="device_firmware" sheetId="46" r:id="rId49"/>
     <sheet state="visible" name="kernel_panics" sheetId="47" r:id="rId50"/>
+    <sheet state="visible" name="keychain_items" sheetId="48" r:id="rId51"/>
+    <sheet state="visible" name="managed_policies" sheetId="49" r:id="rId52"/>
+    <sheet state="visible" name="shared_folders" sheetId="50" r:id="rId53"/>
+    <sheet state="visible" name="time_machine_destinations" sheetId="51" r:id="rId54"/>
+    <sheet state="visible" name="time_machine_backups" sheetId="52" r:id="rId55"/>
+    <sheet state="visible" name="wifi_networks" sheetId="53" r:id="rId56"/>
+    <sheet state="visible" name="mdfind" sheetId="54" r:id="rId57"/>
+    <sheet state="visible" name="extended_attributes" sheetId="55" r:id="rId58"/>
+    <sheet state="visible" name="magic" sheetId="56" r:id="rId59"/>
+    <sheet state="visible" name="account_policy_data" sheetId="57" r:id="rId60"/>
+    <sheet state="visible" name="keychain_acls" sheetId="58" r:id="rId61"/>
+    <sheet state="visible" name="process_open_files" sheetId="59" r:id="rId62"/>
+    <sheet state="visible" name="file" sheetId="60" r:id="rId63"/>
+    <sheet state="visible" name="cups_jobs" sheetId="61" r:id="rId64"/>
+    <sheet state="visible" name="ec2_instance_metadata" sheetId="62" r:id="rId65"/>
+    <sheet state="visible" name="appcompat_shims" sheetId="63" r:id="rId66"/>
+    <sheet state="visible" name="bitlocker_info" sheetId="64" r:id="rId67"/>
+    <sheet state="visible" name="chocolatey_packages" sheetId="65" r:id="rId68"/>
+    <sheet state="visible" name="drivers" sheetId="66" r:id="rId69"/>
+    <sheet state="visible" name="logon_sessions" sheetId="67" r:id="rId70"/>
+    <sheet state="visible" name="programs" sheetId="68" r:id="rId71"/>
+    <sheet state="visible" name="scheduled_task" sheetId="69" r:id="rId72"/>
+    <sheet state="visible" name="services" sheetId="70" r:id="rId73"/>
+    <sheet state="visible" name="shared_resources" sheetId="71" r:id="rId74"/>
+    <sheet state="visible" name="wmi_event_filters" sheetId="72" r:id="rId75"/>
+    <sheet state="visible" name="wmi_filter_consumer_bindings" sheetId="73" r:id="rId76"/>
+    <sheet state="visible" name="wmi_cli_event_consumers" sheetId="74" r:id="rId77"/>
+    <sheet state="visible" name="wmi_script_event_consumers" sheetId="75" r:id="rId78"/>
+    <sheet state="visible" name="registry" sheetId="76" r:id="rId79"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -57,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="1682">
   <si>
     <t>Osquery Field Name</t>
   </si>
@@ -3254,76 +3283,1855 @@
     <t>Firmware version.</t>
   </si>
   <si>
-    <t>---------------</t>
+    <t>OSQuery field name</t>
+  </si>
+  <si>
+    <t>Location of log file.</t>
+  </si>
+  <si>
+    <t>Formatted time of the event.</t>
+  </si>
+  <si>
+    <t>kernel_panic.registers</t>
+  </si>
+  <si>
+    <t>A space-delimited line of register:value pairs.</t>
+  </si>
+  <si>
+    <t>frame_backtrace</t>
+  </si>
+  <si>
+    <t>kernel_panic.backtrace</t>
+  </si>
+  <si>
+    <t>Backtrace of the crashed module.</t>
+  </si>
+  <si>
+    <t>module_backtrace</t>
+  </si>
+  <si>
+    <t>kernel_panic.module_backtrace</t>
+  </si>
+  <si>
+    <t>Modules appearing in the crashed module's backtrace.</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
+    <t>kernel_panic.dependencies</t>
+  </si>
+  <si>
+    <t>Module dependencies existing in crashed module's backtrace.</t>
+  </si>
+  <si>
+    <t>Process name corresponding to crashed thread.</t>
+  </si>
+  <si>
+    <t>os_version</t>
+  </si>
+  <si>
+    <t>operating_system.version</t>
+  </si>
+  <si>
+    <t>Version of the operating system.</t>
+  </si>
+  <si>
+    <t>kernel_version</t>
+  </si>
+  <si>
+    <t>kernel.version</t>
+  </si>
+  <si>
+    <t>Version of the system kernel.</t>
+  </si>
+  <si>
+    <t>system_model</t>
+  </si>
+  <si>
+    <t>system.model</t>
+  </si>
+  <si>
+    <t>Physical system model, for example "MacBookPro12,1 (Mac-E43C1C25D4880AD6)".</t>
+  </si>
+  <si>
+    <t>System uptime at kernel panic in milliseconds.</t>
+  </si>
+  <si>
+    <t>last_loaded</t>
+  </si>
+  <si>
+    <t>kernel_panic.last_loaded_module</t>
+  </si>
+  <si>
+    <t>Last loaded module before panic.</t>
+  </si>
+  <si>
+    <t>last_unloaded</t>
+  </si>
+  <si>
+    <t>kernel_panic.last_unloaded_module</t>
+  </si>
+  <si>
+    <t>Last unloaded module before panic.</t>
+  </si>
+  <si>
+    <t>keychain_items.label</t>
+  </si>
+  <si>
+    <t>Generic item name.</t>
+  </si>
+  <si>
+    <t>keychain_items.description</t>
+  </si>
+  <si>
+    <t>Optional item description.</t>
+  </si>
+  <si>
+    <t>keychain_items.comment</t>
+  </si>
+  <si>
+    <t>Optional keychain comment.</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>keychain_items.account</t>
+  </si>
+  <si>
+    <t>Optional item account.</t>
+  </si>
+  <si>
+    <t>keychain_items.created</t>
+  </si>
+  <si>
+    <t>Date item was created.</t>
+  </si>
+  <si>
+    <t>keychain_items.modified</t>
+  </si>
+  <si>
+    <t>Date of last modification.</t>
+  </si>
+  <si>
+    <t>keychain_items.type</t>
+  </si>
+  <si>
+    <t>Keychain item type (class).</t>
+  </si>
+  <si>
+    <t>keychain_items.path</t>
+  </si>
+  <si>
+    <t>Path to keychain containing item.</t>
+  </si>
+  <si>
+    <t>event.provider</t>
+  </si>
+  <si>
+    <t>The system or manager-chosen domain key.</t>
+  </si>
+  <si>
+    <t>managed_policy.uuid</t>
+  </si>
+  <si>
+    <t>An optional UUID assigned to the policy set.</t>
+  </si>
+  <si>
+    <t>managed_policy.name</t>
+  </si>
+  <si>
+    <t>The policy key name.</t>
+  </si>
+  <si>
+    <t>managed_policy.value</t>
+  </si>
+  <si>
+    <t>The policy value.</t>
+  </si>
+  <si>
+    <t>The user to whom the policy applies.</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>managed_policy.manual</t>
+  </si>
+  <si>
+    <t>Indicates whether the policy was loaded manually (true) or not (false).</t>
+  </si>
+  <si>
+    <t>shared_folder.name</t>
+  </si>
+  <si>
+    <t>The shared name of the folder as it appears to other users.</t>
+  </si>
+  <si>
+    <t>shared_folder.path</t>
+  </si>
+  <si>
+    <t>Absolute path of shared folder on the local system.</t>
+  </si>
+  <si>
+    <t>In this case, the "name" and "path" columns can be directly mapped to fields in the "shared_folder" namespace. The "shared_folders" table doesn't contain any additional fields that require custom mapping.</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>time_machine.destination.alias</t>
+  </si>
+  <si>
+    <t>Human-readable name of drive.</t>
+  </si>
+  <si>
+    <t>destination_id</t>
+  </si>
+  <si>
+    <t>time_machine.destination.id</t>
+  </si>
+  <si>
+    <t>Time Machine destination ID.</t>
+  </si>
+  <si>
+    <t>consistency_scan_date</t>
+  </si>
+  <si>
+    <t>time_machine.destination.consistency_scan_date</t>
+  </si>
+  <si>
+    <t>Consistency scan date.</t>
+  </si>
+  <si>
+    <t>root_volume_uuid</t>
+  </si>
+  <si>
+    <t>time_machine.destination.root_volume.uuid</t>
+  </si>
+  <si>
+    <t>Root UUID of backup volume.</t>
+  </si>
+  <si>
+    <t>bytes_available</t>
+  </si>
+  <si>
+    <t>time_machine.destination.bytes_available</t>
+  </si>
+  <si>
+    <t>Bytes available on volume.</t>
+  </si>
+  <si>
+    <t>bytes_used</t>
+  </si>
+  <si>
+    <t>time_machine.destination.bytes_used</t>
+  </si>
+  <si>
+    <t>Bytes used on volume.</t>
+  </si>
+  <si>
+    <t>encryption</t>
+  </si>
+  <si>
+    <t>time_machine.destination.encryption</t>
+  </si>
+  <si>
+    <t>Last known encrypted state.</t>
+  </si>
+  <si>
+    <t>In this case, the column names can be directly mapped to fields in the "time_machine.destination" namespace. The "consistency_scan_date" column is mapped to the "date" data type in ECS, and the "bytes_available" and "bytes_used" columns are mapped to the "long" data type.</t>
+  </si>
+  <si>
+    <t>Note that the "time_machine_destinations" table is typically joined with the "time_machine_backups" table to obtain additional information about Time Machine backups. The example query provided in the "examples" field demonstrates how this can be done.</t>
+  </si>
+  <si>
+    <t>time_machine.backup.destination.id</t>
+  </si>
+  <si>
+    <t>backup_date</t>
+  </si>
+  <si>
+    <t>time_machine.backup.date</t>
+  </si>
+  <si>
+    <t>Backup date.</t>
+  </si>
+  <si>
+    <t>In this case, the "destination_id" column can be mapped to the "time_machine.backup.destination.id" field in the "time_machine.backup" namespace, while the "backup_date" column can be mapped to the "date" data type.</t>
+  </si>
+  <si>
+    <t>Note that the "time_machine_backups" table is typically joined with the "time_machine_destinations" table to obtain additional information about Time Machine destinations. The example query provided in the "examples" field demonstrates how this can be done.</t>
+  </si>
+  <si>
+    <t>----------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>ssid</t>
+  </si>
+  <si>
+    <t>wifi_network.ssid</t>
+  </si>
+  <si>
+    <t>SSID octets of the network</t>
+  </si>
+  <si>
+    <t>network_name</t>
+  </si>
+  <si>
+    <t>wifi_network.network_name</t>
+  </si>
+  <si>
+    <t>Name of the network</t>
+  </si>
+  <si>
+    <t>security_type</t>
+  </si>
+  <si>
+    <t>wifi_network.security_type</t>
+  </si>
+  <si>
+    <t>Type of security on this network</t>
+  </si>
+  <si>
+    <t>last_connected</t>
+  </si>
+  <si>
+    <t>wifi_network.last_connected</t>
+  </si>
+  <si>
+    <t>Last time this network was connected to as a Unix time (seconds since January 1, 1970)</t>
+  </si>
+  <si>
+    <t>passpoint</t>
+  </si>
+  <si>
+    <t>wifi_network.passpoint</t>
+  </si>
+  <si>
+    <t>1 if Passpoint is supported, 0 otherwise</t>
+  </si>
+  <si>
+    <t>possibly_hidden</t>
+  </si>
+  <si>
+    <t>wifi_network.possibly_hidden</t>
+  </si>
+  <si>
+    <t>1 if network is possibly a hidden network, 0 otherwise</t>
+  </si>
+  <si>
+    <t>roaming</t>
+  </si>
+  <si>
+    <t>wifi_network.roaming</t>
+  </si>
+  <si>
+    <t>1 if roaming is supported, 0 otherwise</t>
+  </si>
+  <si>
+    <t>roaming_profile</t>
+  </si>
+  <si>
+    <t>wifi_network.roaming_profile</t>
+  </si>
+  <si>
+    <t>Describe the roaming profile, usually one of Single, Dual, or Multi</t>
+  </si>
+  <si>
+    <t>auto_login</t>
+  </si>
+  <si>
+    <t>wifi_network.auto_login</t>
+  </si>
+  <si>
+    <t>1 if auto login is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>temporarily_disabled</t>
+  </si>
+  <si>
+    <t>wifi_network.temporarily_disabled</t>
+  </si>
+  <si>
+    <t>1 if this network is temporarily disabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>wifi_network.disabled</t>
+  </si>
+  <si>
+    <t>1 if this network is disabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>add_reason</t>
+  </si>
+  <si>
+    <t>wifi_network.add_reason</t>
+  </si>
+  <si>
+    <t>Shows why this network was added, via menubar or command line or something else</t>
+  </si>
+  <si>
+    <t>added_at</t>
+  </si>
+  <si>
+    <t>wifi_network.added_at</t>
+  </si>
+  <si>
+    <t>Time this network was added as a Unix time (seconds since January 1, 1970)</t>
+  </si>
+  <si>
+    <t>captive_portal</t>
+  </si>
+  <si>
+    <t>wifi_network.captive_portal</t>
+  </si>
+  <si>
+    <t>1 if this network has a captive portal, 0 otherwise</t>
+  </si>
+  <si>
+    <t>captive_login_date</t>
+  </si>
+  <si>
+    <t>wifi_network.captive_login_date</t>
+  </si>
+  <si>
+    <t>Time this network logged in to a captive portal as Unix time (seconds since January 1, 1970)</t>
+  </si>
+  <si>
+    <t>was_captive_network</t>
+  </si>
+  <si>
+    <t>wifi_network.was_captive_network</t>
+  </si>
+  <si>
+    <t>1 if this network was previously a captive network, 0 otherwise</t>
+  </si>
+  <si>
+    <t>auto_join</t>
+  </si>
+  <si>
+    <t>wifi_network.auto_join</t>
+  </si>
+  <si>
+    <t>1 if this network is set to join automatically, 0 otherwise</t>
+  </si>
+  <si>
+    <t>personal_hotspot</t>
+  </si>
+  <si>
+    <t>wifi_network.personal_hotspot</t>
+  </si>
+  <si>
+    <t>1 if this network is a personal hotspot, 0 otherwise</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>mdfind.path</t>
+  </si>
+  <si>
+    <t>Path of the file returned from Spotlight</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>mdfind.query</t>
+  </si>
+  <si>
+    <t>The query that was run to find the file (required)</t>
+  </si>
+  <si>
+    <t>-------------------</t>
+  </si>
+  <si>
+    <t>host.file.path</t>
+  </si>
+  <si>
+    <t>Absolute file path</t>
+  </si>
+  <si>
+    <t>host.file.directory</t>
+  </si>
+  <si>
+    <t>Directory of file(s)</t>
+  </si>
+  <si>
+    <t>host.file.xattrs.key</t>
+  </si>
+  <si>
+    <t>Name of the value generated from the extended attribute</t>
+  </si>
+  <si>
+    <t>host.file.xattrs.value</t>
+  </si>
+  <si>
+    <t>The parsed information from the attribute</t>
+  </si>
+  <si>
+    <t>base64</t>
+  </si>
+  <si>
+    <t>host.file.xattrs.base64</t>
+  </si>
+  <si>
+    <t>Indicates if the value is base64 encoded (true/false)</t>
   </si>
   <si>
     <t>event.original</t>
   </si>
   <si>
-    <t>The path to the kernel panic log file</t>
-  </si>
-  <si>
-    <t>The time when the kernel panic occurred</t>
-  </si>
-  <si>
-    <t>Not mapped to ECS as it contains structured data in a string</t>
-  </si>
-  <si>
-    <t>frame_backtrace</t>
-  </si>
-  <si>
-    <t>error.stack</t>
-  </si>
-  <si>
-    <t>A backtrace of the crashed module, similar to a stack trace</t>
-  </si>
-  <si>
-    <t>module_backtrace</t>
-  </si>
-  <si>
-    <t>dependencies</t>
-  </si>
-  <si>
-    <t>The name of the process corresponding to the crashed thread</t>
-  </si>
-  <si>
-    <t>os_version</t>
-  </si>
-  <si>
-    <t>os.version</t>
-  </si>
-  <si>
-    <t>The version of the operating system</t>
-  </si>
-  <si>
-    <t>kernel_version</t>
-  </si>
-  <si>
-    <t>system.version</t>
-  </si>
-  <si>
-    <t>The version of the system kernel</t>
-  </si>
-  <si>
-    <t>system_model</t>
-  </si>
-  <si>
-    <t>system.model</t>
-  </si>
-  <si>
-    <t>The physical system model, for example 'MacBookPro12,1 (Mac-...)'</t>
-  </si>
-  <si>
-    <t>Not mapped to ECS as it contains structured data in nanoseconds</t>
-  </si>
-  <si>
-    <t>last_loaded</t>
-  </si>
-  <si>
-    <t>last_unloaded</t>
-  </si>
-  <si>
-    <t>Note that the `registers`, `module_backtrace`, `dependencies`, `uptime`, `last_loaded`, and `last_unloaded` columns are not mapped to ECS as they contain structured data in a string. It may be possible to parse some of this data into separate ECS fields, depending on the format of the data.</t>
+    <t>Absolute path to target file</t>
+  </si>
+  <si>
+    <t>magic_db_files</t>
+  </si>
+  <si>
+    <t>system.magic.db_files</t>
+  </si>
+  <si>
+    <t>Colon-separated list of files where the magic db file can be found. By default, one of the following is used: /usr/share/file/magic/magic, /usr/share/misc/magic, or /usr/share/misc/magic.mgc</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>system.magic.data</t>
+  </si>
+  <si>
+    <t>Magic number data from libmagic</t>
+  </si>
+  <si>
+    <t>mime_type</t>
+  </si>
+  <si>
+    <t>system.magic.mime_type</t>
+  </si>
+  <si>
+    <t>MIME type data from libmagic</t>
+  </si>
+  <si>
+    <t>mime_encoding</t>
+  </si>
+  <si>
+    <t>system.magic.mime_encoding</t>
+  </si>
+  <si>
+    <t>MIME encoding data from libmagic</t>
+  </si>
+  <si>
+    <t>-------------------------</t>
+  </si>
+  <si>
+    <t>--------------------------------------</t>
+  </si>
+  <si>
+    <t>creation_time</t>
+  </si>
+  <si>
+    <t>user.account_policy.creation_time</t>
+  </si>
+  <si>
+    <t>When the account was first created</t>
+  </si>
+  <si>
+    <t>failed_login_count</t>
+  </si>
+  <si>
+    <t>user.account_policy.failed_login_count</t>
+  </si>
+  <si>
+    <t>The number of failed login attempts using an incorrect password. Count resets after a correct password is entered.</t>
+  </si>
+  <si>
+    <t>failed_login_timestamp</t>
+  </si>
+  <si>
+    <t>user.account_policy.failed_login_timestamp</t>
+  </si>
+  <si>
+    <t>The time of the last failed login attempt. Resets after a correct password is entered</t>
+  </si>
+  <si>
+    <t>password_last_set_time</t>
+  </si>
+  <si>
+    <t>user.account_policy.password_last_set_time</t>
+  </si>
+  <si>
+    <t>The time the password was last changed</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>keychain_path</t>
+  </si>
+  <si>
+    <t>keychain.acl.keychain_path</t>
+  </si>
+  <si>
+    <t>The path of the keychain</t>
+  </si>
+  <si>
+    <t>authorizations</t>
+  </si>
+  <si>
+    <t>keychain.acl.authorizations</t>
+  </si>
+  <si>
+    <t>A space delimited set of authorization attributes</t>
+  </si>
+  <si>
+    <t>keychain.acl.authorized_application.path</t>
+  </si>
+  <si>
+    <t>The path of the authorized application</t>
+  </si>
+  <si>
+    <t>keychain.acl.description</t>
+  </si>
+  <si>
+    <t>The description included with the ACL entry</t>
+  </si>
+  <si>
+    <t>keychain.acl.label</t>
+  </si>
+  <si>
+    <t>An optional label tag that may be included with entry</t>
+  </si>
+  <si>
+    <t>---------------------------------</t>
+  </si>
+  <si>
+    <t>process.fd</t>
+  </si>
+  <si>
+    <t>Process-specific file descriptor number</t>
+  </si>
+  <si>
+    <t>Filesystem path of descriptor</t>
+  </si>
+  <si>
+    <t>file.directory</t>
+  </si>
+  <si>
+    <t>file.name</t>
+  </si>
+  <si>
+    <t>Name portion of file path</t>
+  </si>
+  <si>
+    <t>file.inode</t>
+  </si>
+  <si>
+    <t>Filesystem inode number</t>
+  </si>
+  <si>
+    <t>file.uid</t>
+  </si>
+  <si>
+    <t>Owning user ID</t>
+  </si>
+  <si>
+    <t>file.gid</t>
+  </si>
+  <si>
+    <t>Owning group ID</t>
+  </si>
+  <si>
+    <t>file.mode</t>
+  </si>
+  <si>
+    <t>Permission bits</t>
+  </si>
+  <si>
+    <t>file.device</t>
+  </si>
+  <si>
+    <t>Device ID (optional)</t>
+  </si>
+  <si>
+    <t>file.size</t>
+  </si>
+  <si>
+    <t>Size of file in bytes</t>
+  </si>
+  <si>
+    <t>block_size</t>
+  </si>
+  <si>
+    <t>file.block_size</t>
+  </si>
+  <si>
+    <t>Block size of the filesystem</t>
+  </si>
+  <si>
+    <t>file.accessed_time</t>
+  </si>
+  <si>
+    <t>Last access time</t>
+  </si>
+  <si>
+    <t>file.modified_time</t>
+  </si>
+  <si>
+    <t>Last modification time</t>
+  </si>
+  <si>
+    <t>file.created_time</t>
+  </si>
+  <si>
+    <t>Last status change time</t>
+  </si>
+  <si>
+    <t>file.birth_time</t>
+  </si>
+  <si>
+    <t>(B)irth or (cr)eate time</t>
+  </si>
+  <si>
+    <t>hard_links</t>
+  </si>
+  <si>
+    <t>file.hard_links</t>
+  </si>
+  <si>
+    <t>Number of hard links</t>
+  </si>
+  <si>
+    <t>symlink</t>
+  </si>
+  <si>
+    <t>file.symlink</t>
+  </si>
+  <si>
+    <t>1 if the path is a symlink, otherwise 0</t>
+  </si>
+  <si>
+    <t>file.type</t>
+  </si>
+  <si>
+    <t>File status</t>
+  </si>
+  <si>
+    <t>attributes (WINDOWS)</t>
+  </si>
+  <si>
+    <t>file.windows.attributes</t>
+  </si>
+  <si>
+    <t>File attrib string</t>
+  </si>
+  <si>
+    <t>volume_serial (WINDOWS)</t>
+  </si>
+  <si>
+    <t>file.windows.volume_serial</t>
+  </si>
+  <si>
+    <t>Volume serial number</t>
+  </si>
+  <si>
+    <t>file_id (WINDOWS)</t>
+  </si>
+  <si>
+    <t>file.windows.file_id</t>
+  </si>
+  <si>
+    <t>File ID</t>
+  </si>
+  <si>
+    <t>file_version (WINDOWS)</t>
+  </si>
+  <si>
+    <t>file.windows.file_version</t>
+  </si>
+  <si>
+    <t>File version</t>
+  </si>
+  <si>
+    <t>product_version (WINDOWS)</t>
+  </si>
+  <si>
+    <t>file.windows.product_version</t>
+  </si>
+  <si>
+    <t>File product version</t>
+  </si>
+  <si>
+    <t>original_filename (WINDOWS)</t>
+  </si>
+  <si>
+    <t>file.windows.original_filename</t>
+  </si>
+  <si>
+    <t>Original filename (Executable files only)</t>
+  </si>
+  <si>
+    <t>bsd_flags (DARWIN)</t>
+  </si>
+  <si>
+    <t>file.darwin.bsd_flags</t>
+  </si>
+  <si>
+    <t>The BSD file flags (chflags)</t>
+  </si>
+  <si>
+    <t>pid_with_namespace (LINUX)</t>
+  </si>
+  <si>
+    <t>file.linux.pid_with_namespace</t>
+  </si>
+  <si>
+    <t>mount_namespace_id (LINUX)</t>
+  </si>
+  <si>
+    <t>file.linux.mount_namespace_id</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>cups_jobs.title</t>
+  </si>
+  <si>
+    <t>Title of the printed job</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>cups_jobs.destination</t>
+  </si>
+  <si>
+    <t>The printer the job was sent to</t>
+  </si>
+  <si>
+    <t>cups_jobs.user</t>
+  </si>
+  <si>
+    <t>The user who printed the job</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>cups_jobs.format</t>
+  </si>
+  <si>
+    <t>The format of the print job</t>
+  </si>
+  <si>
+    <t>cups_jobs.size</t>
+  </si>
+  <si>
+    <t>The size of the print job</t>
+  </si>
+  <si>
+    <t>completed_time</t>
+  </si>
+  <si>
+    <t>cups_jobs.completed_time</t>
+  </si>
+  <si>
+    <t>When the job completed printing</t>
+  </si>
+  <si>
+    <t>processing_time</t>
+  </si>
+  <si>
+    <t>cups_jobs.processing_time</t>
+  </si>
+  <si>
+    <t>How long the job took to process</t>
+  </si>
+  <si>
+    <t>cups_jobs.creation_time</t>
+  </si>
+  <si>
+    <t>When the print request was initiated</t>
+  </si>
+  <si>
+    <t>---------------------------------------------</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>instance_id</t>
+  </si>
+  <si>
+    <t>cloud.instance.id</t>
+  </si>
+  <si>
+    <t>EC2 instance ID</t>
+  </si>
+  <si>
+    <t>instance_type</t>
+  </si>
+  <si>
+    <t>cloud.instance.type</t>
+  </si>
+  <si>
+    <t>EC2 instance type</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>cloud.instance.architecture</t>
+  </si>
+  <si>
+    <t>Hardware architecture of this EC2 instance</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>cloud.provider.region</t>
+  </si>
+  <si>
+    <t>AWS region in which this instance launched</t>
+  </si>
+  <si>
+    <t>availability_zone</t>
+  </si>
+  <si>
+    <t>cloud.provider.availability_zone</t>
+  </si>
+  <si>
+    <t>Availability zone in which this instance launched</t>
+  </si>
+  <si>
+    <t>local_hostname</t>
+  </si>
+  <si>
+    <t>cloud.instance.network_interfaces.hostname</t>
+  </si>
+  <si>
+    <t>Private IPv4 DNS hostname of the first interface of this instance</t>
+  </si>
+  <si>
+    <t>local_ipv4</t>
+  </si>
+  <si>
+    <t>cloud.instance.network_interfaces.ipv4</t>
+  </si>
+  <si>
+    <t>Private IPv4 address of the first interface of this instance</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>cloud.instance.network_interfaces.mac</t>
+  </si>
+  <si>
+    <t>MAC address for the first network interface of this EC2 instance</t>
+  </si>
+  <si>
+    <t>security_groups</t>
+  </si>
+  <si>
+    <t>cloud.instance.security_groups</t>
+  </si>
+  <si>
+    <t>Comma separated list of security group names</t>
+  </si>
+  <si>
+    <t>iam_arn</t>
+  </si>
+  <si>
+    <t>cloud.instance.iam_profile.arn</t>
+  </si>
+  <si>
+    <t>If there is an IAM role associated with the instance, contains instance profile ARN</t>
+  </si>
+  <si>
+    <t>ami_id</t>
+  </si>
+  <si>
+    <t>cloud.instance.image.id</t>
+  </si>
+  <si>
+    <t>AMI ID used to launch this EC2 instance</t>
+  </si>
+  <si>
+    <t>reservation_id</t>
+  </si>
+  <si>
+    <t>cloud.provider.reservation_id</t>
+  </si>
+  <si>
+    <t>ID of the reservation</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>cloud.account.id</t>
+  </si>
+  <si>
+    <t>AWS account ID which owns this EC2 instance</t>
+  </si>
+  <si>
+    <t>ssh_public_key</t>
+  </si>
+  <si>
+    <t>cloud.instance.ssh_public_key</t>
+  </si>
+  <si>
+    <t>SSH public key. Only available if supplied at instance launch time</t>
+  </si>
+  <si>
+    <t>executable</t>
+  </si>
+  <si>
+    <t>Name of the executable that is being shimmed. This is pulled from the registry.</t>
+  </si>
+  <si>
+    <t>This is the path to the SDB database.</t>
+  </si>
+  <si>
+    <t>appcompat.description</t>
+  </si>
+  <si>
+    <t>Description of the SDB.</t>
+  </si>
+  <si>
+    <t>appcompat.install_time</t>
+  </si>
+  <si>
+    <t>Install time of the SDB.</t>
+  </si>
+  <si>
+    <t>appcompat.type</t>
+  </si>
+  <si>
+    <t>Type of the SDB database.</t>
+  </si>
+  <si>
+    <t>sdb_id</t>
+  </si>
+  <si>
+    <t>appcompat.sdb_id</t>
+  </si>
+  <si>
+    <t>Unique GUID of the SDB.</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>bitlocker.device_id</t>
+  </si>
+  <si>
+    <t>ID of the encrypted drive.</t>
+  </si>
+  <si>
+    <t>drive_letter</t>
+  </si>
+  <si>
+    <t>bitlocker.drive_letter</t>
+  </si>
+  <si>
+    <t>Drive letter of the encrypted drive.</t>
+  </si>
+  <si>
+    <t>persistent_volume_id</t>
+  </si>
+  <si>
+    <t>bitlocker.persistent_volume_id</t>
+  </si>
+  <si>
+    <t>Persistent ID of the drive.</t>
+  </si>
+  <si>
+    <t>conversion_status</t>
+  </si>
+  <si>
+    <t>bitlocker.conversion_status</t>
+  </si>
+  <si>
+    <t>The BitLocker conversion status of the drive.</t>
+  </si>
+  <si>
+    <t>protection_status</t>
+  </si>
+  <si>
+    <t>bitlocker.protection_status</t>
+  </si>
+  <si>
+    <t>The BitLocker protection status of the drive.</t>
+  </si>
+  <si>
+    <t>encryption_method</t>
+  </si>
+  <si>
+    <t>bitlocker.encryption_method</t>
+  </si>
+  <si>
+    <t>The encryption type of the device.</t>
+  </si>
+  <si>
+    <t>bitlocker.version</t>
+  </si>
+  <si>
+    <t>The FVE metadata version of the drive.</t>
+  </si>
+  <si>
+    <t>percentage_encrypted</t>
+  </si>
+  <si>
+    <t>bitlocker.percentage_encrypted</t>
+  </si>
+  <si>
+    <t>The percentage of the drive that is encrypted.</t>
+  </si>
+  <si>
+    <t>lock_status</t>
+  </si>
+  <si>
+    <t>bitlocker.lock_status</t>
+  </si>
+  <si>
+    <t>The accessibility status of the drive from Windows.</t>
+  </si>
+  <si>
+    <t>package.summary</t>
+  </si>
+  <si>
+    <t>package.author</t>
+  </si>
+  <si>
+    <t>package.license</t>
+  </si>
+  <si>
+    <t>License under which the package is launched</t>
+  </si>
+  <si>
+    <t>Path at which this package resides</t>
+  </si>
+  <si>
+    <t>----------------------------------------------------</t>
+  </si>
+  <si>
+    <t>system.device.id</t>
+  </si>
+  <si>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>device_name</t>
+  </si>
+  <si>
+    <t>system.device.name</t>
+  </si>
+  <si>
+    <t>Device name</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>system.device.image</t>
+  </si>
+  <si>
+    <t>Path to driver image file</t>
+  </si>
+  <si>
+    <t>system.device.description</t>
+  </si>
+  <si>
+    <t>Driver description</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>system.device.service</t>
+  </si>
+  <si>
+    <t>Driver service name, if one exists</t>
+  </si>
+  <si>
+    <t>service_key</t>
+  </si>
+  <si>
+    <t>system.device.service_key</t>
+  </si>
+  <si>
+    <t>Driver service registry key</t>
+  </si>
+  <si>
+    <t>system.device.version</t>
+  </si>
+  <si>
+    <t>Driver version</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>system.device.inf</t>
+  </si>
+  <si>
+    <t>Associated INF file</t>
+  </si>
+  <si>
+    <t>system.device.class</t>
+  </si>
+  <si>
+    <t>Device/driver class name</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>system.device.provider</t>
+  </si>
+  <si>
+    <t>Driver provider</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>system.device.manufacturer</t>
+  </si>
+  <si>
+    <t>Device manufacturer</t>
+  </si>
+  <si>
+    <t>driver_key</t>
+  </si>
+  <si>
+    <t>system.device.driver_key</t>
+  </si>
+  <si>
+    <t>Driver key</t>
+  </si>
+  <si>
+    <t>system.device.date</t>
+  </si>
+  <si>
+    <t>Driver date</t>
+  </si>
+  <si>
+    <t>system.device.signed</t>
+  </si>
+  <si>
+    <t>Whether the driver is signed or not</t>
+  </si>
+  <si>
+    <t>------------------------------------</t>
+  </si>
+  <si>
+    <t>logon_id</t>
+  </si>
+  <si>
+    <t>event.action</t>
+  </si>
+  <si>
+    <t>A locally unique identifier (LUID) that identifies a logon session.</t>
+  </si>
+  <si>
+    <t>The account name of the security principal that owns the logon session.</t>
+  </si>
+  <si>
+    <t>logon_domain</t>
+  </si>
+  <si>
+    <t>user.domain</t>
+  </si>
+  <si>
+    <t>The name of the domain used to authenticate the owner of the logon session.</t>
+  </si>
+  <si>
+    <t>authentication_package</t>
+  </si>
+  <si>
+    <t>event.outcome</t>
+  </si>
+  <si>
+    <t>The authentication package used to authenticate the owner of the logon session.</t>
+  </si>
+  <si>
+    <t>logon_type</t>
+  </si>
+  <si>
+    <t>logon.type</t>
+  </si>
+  <si>
+    <t>The logon method.</t>
+  </si>
+  <si>
+    <t>session_id</t>
+  </si>
+  <si>
+    <t>session.id</t>
+  </si>
+  <si>
+    <t>The Terminal Services session identifier.</t>
+  </si>
+  <si>
+    <t>logon_sid</t>
+  </si>
+  <si>
+    <t>The user's security identifier (SID).</t>
+  </si>
+  <si>
+    <t>logon_time</t>
+  </si>
+  <si>
+    <t>event.start</t>
+  </si>
+  <si>
+    <t>The time the session owner logged on.</t>
+  </si>
+  <si>
+    <t>logon_server</t>
+  </si>
+  <si>
+    <t>logon.server</t>
+  </si>
+  <si>
+    <t>The name of the server used to authenticate the owner of the logon session.</t>
+  </si>
+  <si>
+    <t>dns_domain_name</t>
+  </si>
+  <si>
+    <t>user.dns.domain</t>
+  </si>
+  <si>
+    <t>The DNS name for the owner of the logon session.</t>
+  </si>
+  <si>
+    <t>upn</t>
+  </si>
+  <si>
+    <t>user.upn</t>
+  </si>
+  <si>
+    <t>The user principal name (UPN) for the owner of the logon session.</t>
+  </si>
+  <si>
+    <t>logon_script</t>
+  </si>
+  <si>
+    <t>user.environment.logon_script</t>
+  </si>
+  <si>
+    <t>The script used for logging on.</t>
+  </si>
+  <si>
+    <t>profile_path</t>
+  </si>
+  <si>
+    <t>user.environment.profile_path</t>
+  </si>
+  <si>
+    <t>The home directory for the logon session.</t>
+  </si>
+  <si>
+    <t>home_directory</t>
+  </si>
+  <si>
+    <t>user.environment.home_directory</t>
+  </si>
+  <si>
+    <t>home_directory_drive</t>
+  </si>
+  <si>
+    <t>user.environment.home_directory_drive</t>
+  </si>
+  <si>
+    <t>The drive location of the home directory of the logon session.</t>
+  </si>
+  <si>
+    <t>-----------------------------</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>software.name</t>
+  </si>
+  <si>
+    <t>Commonly used product name.</t>
+  </si>
+  <si>
+    <t>software.version</t>
+  </si>
+  <si>
+    <t>Product version information.</t>
+  </si>
+  <si>
+    <t>install_location</t>
+  </si>
+  <si>
+    <t>software.install_location</t>
+  </si>
+  <si>
+    <t>The installation location directory of the product.</t>
+  </si>
+  <si>
+    <t>install_source</t>
+  </si>
+  <si>
+    <t>software.install_source</t>
+  </si>
+  <si>
+    <t>The installation source of the product.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>software.language</t>
+  </si>
+  <si>
+    <t>The language of the product.</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>software.publisher</t>
+  </si>
+  <si>
+    <t>Name of the product supplier.</t>
+  </si>
+  <si>
+    <t>uninstall_string</t>
+  </si>
+  <si>
+    <t>software.uninstall_string</t>
+  </si>
+  <si>
+    <t>Path and filename of the uninstaller.</t>
+  </si>
+  <si>
+    <t>install_date</t>
+  </si>
+  <si>
+    <t>software.install_date</t>
+  </si>
+  <si>
+    <t>Date that this product was installed on the system.</t>
+  </si>
+  <si>
+    <t>identifying_number</t>
+  </si>
+  <si>
+    <t>software.identifying_number</t>
+  </si>
+  <si>
+    <t>Product identification such as a serial number on software or a die number on hardware chip.</t>
+  </si>
+  <si>
+    <t>----------------------------------</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Name of the scheduled task</t>
+  </si>
+  <si>
+    <t>scheduled_task.action</t>
+  </si>
+  <si>
+    <t>Actions executed by the scheduled task</t>
+  </si>
+  <si>
+    <t>scheduled_task.executable</t>
+  </si>
+  <si>
+    <t>Path to the executable to be run</t>
+  </si>
+  <si>
+    <t>scheduled_task.enabled</t>
+  </si>
+  <si>
+    <t>Whether or not the scheduled task is enabled</t>
+  </si>
+  <si>
+    <t>scheduled_task.state</t>
+  </si>
+  <si>
+    <t>State of the scheduled task</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>scheduled_task.hidden</t>
+  </si>
+  <si>
+    <t>Whether or not the task is visible in the UI</t>
+  </si>
+  <si>
+    <t>last_run_time</t>
+  </si>
+  <si>
+    <t>scheduled_task.last_run_time</t>
+  </si>
+  <si>
+    <t>Timestamp when the task last ran</t>
+  </si>
+  <si>
+    <t>next_run_time</t>
+  </si>
+  <si>
+    <t>scheduled_task.next_run_time</t>
+  </si>
+  <si>
+    <t>Timestamp when the task is scheduled to run next</t>
+  </si>
+  <si>
+    <t>last_run_message</t>
+  </si>
+  <si>
+    <t>scheduled_task.last_run_message</t>
+  </si>
+  <si>
+    <t>Exit status message of the last task run</t>
+  </si>
+  <si>
+    <t>last_run_code</t>
+  </si>
+  <si>
+    <t>scheduled_task.last_run_code</t>
+  </si>
+  <si>
+    <t>Exit status code of the last task run</t>
+  </si>
+  <si>
+    <t>service.name</t>
+  </si>
+  <si>
+    <t>Service name</t>
+  </si>
+  <si>
+    <t>service_type</t>
+  </si>
+  <si>
+    <t>service.type</t>
+  </si>
+  <si>
+    <t>Service Type: OWN_PROCESS, SHARE_PROCESS, and possibly Interactive (can interact with the desktop)</t>
+  </si>
+  <si>
+    <t>service.display_name</t>
+  </si>
+  <si>
+    <t>Service Display name</t>
+  </si>
+  <si>
+    <t>service.status</t>
+  </si>
+  <si>
+    <t>Service Current status: STOPPED, START_PENDING, STOP_PENDING, RUNNING, CONTINUE_PENDING, PAUSE_PENDING, PAUSED</t>
+  </si>
+  <si>
+    <t>The Process ID of the service</t>
+  </si>
+  <si>
+    <t>start_type</t>
+  </si>
+  <si>
+    <t>service.start_type</t>
+  </si>
+  <si>
+    <t>Service start type: BOOT_START, SYSTEM_START, AUTO_START, DEMAND_START, DISABLED</t>
+  </si>
+  <si>
+    <t>win32_exit_code</t>
+  </si>
+  <si>
+    <t>service.win32_exit_code</t>
+  </si>
+  <si>
+    <t>The error code that the service uses to report an error that occurs when it is starting or stopping</t>
+  </si>
+  <si>
+    <t>service_exit_code</t>
+  </si>
+  <si>
+    <t>service.service_exit_code</t>
+  </si>
+  <si>
+    <t>The service-specific error code that the service returns when an error occurs while starting or stopping</t>
+  </si>
+  <si>
+    <t>service.executable</t>
+  </si>
+  <si>
+    <t>Path to Service Executable</t>
+  </si>
+  <si>
+    <t>module_path</t>
+  </si>
+  <si>
+    <t>service.module_path</t>
+  </si>
+  <si>
+    <t>Path to ServiceDll</t>
+  </si>
+  <si>
+    <t>service.description</t>
+  </si>
+  <si>
+    <t>Service Description</t>
+  </si>
+  <si>
+    <t>user_account</t>
+  </si>
+  <si>
+    <t>service.user_account</t>
+  </si>
+  <si>
+    <t>The name of the account that the service process will be logged on as when it runs</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>shared_resource.description</t>
+  </si>
+  <si>
+    <t>A textual description of the object</t>
+  </si>
+  <si>
+    <t>shared_resource.install_date</t>
+  </si>
+  <si>
+    <t>Indicates when the object was installed. Lack of a value does not indicate that the object is not installed.</t>
+  </si>
+  <si>
+    <t>shared_resource.status</t>
+  </si>
+  <si>
+    <t>String that indicates the current status of the object</t>
+  </si>
+  <si>
+    <t>allow_maximum</t>
+  </si>
+  <si>
+    <t>shared_resource.allow_maximum</t>
+  </si>
+  <si>
+    <t>Number of concurrent users for this resource has been limited. If true, the value in the maximum_allowed property is ignored.</t>
+  </si>
+  <si>
+    <t>maximum_allowed</t>
+  </si>
+  <si>
+    <t>shared_resource.maximum_allowed</t>
+  </si>
+  <si>
+    <t>Limit on the maximum number of users allowed to use this resource concurrently. The value is only valid if the allow_maximum property is set to false.</t>
+  </si>
+  <si>
+    <t>shared_resource.name</t>
+  </si>
+  <si>
+    <t>Alias given to a path set up as a share on a computer system running Windows</t>
+  </si>
+  <si>
+    <t>shared_resource.path</t>
+  </si>
+  <si>
+    <t>Local path of the Windows share</t>
+  </si>
+  <si>
+    <t>shared_resource.type</t>
+  </si>
+  <si>
+    <t>Type of resource being shared. Types include: disk drives, print queues, interprocess communications (IPC), and general devices.</t>
+  </si>
+  <si>
+    <t>wmi_event_filter.name</t>
+  </si>
+  <si>
+    <t>Unique identifier of an event filter</t>
+  </si>
+  <si>
+    <t>wmi_event_filter.query</t>
+  </si>
+  <si>
+    <t>Windows Management Instrumentation Query Language (WQL) event query that specifies the set of events for consumer notification, and the specific conditions for notification</t>
+  </si>
+  <si>
+    <t>query_language</t>
+  </si>
+  <si>
+    <t>wmi_event_filter.query_language</t>
+  </si>
+  <si>
+    <t>Query language that the query is written in</t>
+  </si>
+  <si>
+    <t>wmi_event_filter.class</t>
+  </si>
+  <si>
+    <t>The name of the class</t>
+  </si>
+  <si>
+    <t>relative_path</t>
+  </si>
+  <si>
+    <t>wmi_event_filter.relative_path</t>
+  </si>
+  <si>
+    <t>Relative path to the class or instance</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>wmi_filter_consumer_binding.consumer</t>
+  </si>
+  <si>
+    <t>Reference to an instance of __EventConsumer that represents the object path to a logical consumer, the recipient of an event</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>wmi_filter_consumer_binding.filter</t>
+  </si>
+  <si>
+    <t>Reference to an instance of __EventFilter that represents the object path to an event filter, which is a query that specifies the type of event to be received</t>
+  </si>
+  <si>
+    <t>wmi_filter_consumer_binding.class</t>
+  </si>
+  <si>
+    <t>wmi_filter_consumer_binding.relative_path</t>
+  </si>
+  <si>
+    <t>wmi_cli_event_consumers.name</t>
+  </si>
+  <si>
+    <t>Unique name of a consumer</t>
+  </si>
+  <si>
+    <t>command_line_template</t>
+  </si>
+  <si>
+    <t>wmi_cli_event_consumers.command_line_template</t>
+  </si>
+  <si>
+    <t>Standard string template that specifies the process to be started</t>
+  </si>
+  <si>
+    <t>executable_path</t>
+  </si>
+  <si>
+    <t>wmi_cli_event_consumers.executable_path</t>
+  </si>
+  <si>
+    <t>Module to execute</t>
+  </si>
+  <si>
+    <t>wmi_cli_event_consumers.class</t>
+  </si>
+  <si>
+    <t>wmi_cli_event_consumers.relative_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>-----------------------------------------------</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>wmi_script_event_consumers.name</t>
+  </si>
+  <si>
+    <t>Unique identifier for the event consumer</t>
+  </si>
+  <si>
+    <t>scripting_engine</t>
+  </si>
+  <si>
+    <t>wmi_script_event_consumers.scripting_engine</t>
+  </si>
+  <si>
+    <t>Name of the scripting engine to use</t>
+  </si>
+  <si>
+    <t>script_file_name</t>
+  </si>
+  <si>
+    <t>wmi_script_event_consumers.script_file_name</t>
+  </si>
+  <si>
+    <t>Name of the file from which the script text is read</t>
+  </si>
+  <si>
+    <t>script_text</t>
+  </si>
+  <si>
+    <t>wmi_script_event_consumers.script_text</t>
+  </si>
+  <si>
+    <t>Text of the script that is expressed in a language known to the scripting engine</t>
+  </si>
+  <si>
+    <t>wmi_script_event_consumers.class</t>
+  </si>
+  <si>
+    <t>wmi_script_event_consumers.relative_path</t>
+  </si>
+  <si>
+    <t>registry.key</t>
+  </si>
+  <si>
+    <t>Name of the key to search for</t>
+  </si>
+  <si>
+    <t>registry.path</t>
+  </si>
+  <si>
+    <t>Full path to the value</t>
+  </si>
+  <si>
+    <t>registry.name</t>
+  </si>
+  <si>
+    <t>Name of the registry value entry</t>
+  </si>
+  <si>
+    <t>registry.type</t>
+  </si>
+  <si>
+    <t>Type of the registry value, or 'subkey' if item is a subkey</t>
+  </si>
+  <si>
+    <t>registry.data</t>
+  </si>
+  <si>
+    <t>Data content of registry value</t>
+  </si>
+  <si>
+    <t>Timestamp of the most recent registry write</t>
   </si>
 </sst>
 </file>
@@ -3557,7 +5365,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing48.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing49.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing50.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing51.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing52.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing53.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing54.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing55.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing56.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing57.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing58.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing59.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3565,7 +5421,75 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing60.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing61.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing62.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing63.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing64.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing65.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing66.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing67.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing68.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing69.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing70.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing71.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing72.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing73.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing74.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing75.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing76.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -10980,11 +12904,245 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.88"/>
-    <col customWidth="1" min="2" max="2" width="13.38"/>
-    <col customWidth="1" min="3" max="3" width="9.38"/>
-    <col customWidth="1" min="4" max="4" width="51.25"/>
-    <col customWidth="1" min="5" max="26" width="25.38"/>
+    <col customWidth="1" min="1" max="1" width="16.13"/>
+    <col customWidth="1" min="2" max="2" width="27.63"/>
+    <col customWidth="1" min="3" max="3" width="8.13"/>
+    <col customWidth="1" min="4" max="4" width="64.0"/>
+    <col customWidth="1" min="5" max="25" width="25.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B13"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="21.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="25.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11003,203 +13161,255 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1065</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>832</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>389</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1066</v>
+        <v>1096</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1067</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>1098</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>322</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1068</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>536</v>
+        <v>1049</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>1100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1070</v>
+        <v>1102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1071</v>
+        <v>1103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1072</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>1105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1069</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1074</v>
+        <v>1035</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>1107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1069</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>509</v>
+        <v>1109</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1075</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1076</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1077</v>
+        <v>1111</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>1088</v>
+        <v>1112</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -11424,6 +13634,1268 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.0"/>
+    <col customWidth="1" min="2" max="25" width="23.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.38"/>
+    <col customWidth="1" min="2" max="2" width="37.63"/>
+    <col customWidth="1" min="3" max="3" width="8.13"/>
+    <col customWidth="1" min="4" max="4" width="24.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B4"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.0"/>
+    <col customWidth="1" min="2" max="2" width="27.5"/>
+    <col customWidth="1" min="3" max="3" width="8.13"/>
+    <col customWidth="1" min="4" max="4" width="22.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.88"/>
+    <col customWidth="1" min="2" max="2" width="26.5"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="69.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="13.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="54.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="17.25"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="42.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="23.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="138.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.88"/>
+    <col customWidth="1" min="2" max="2" width="33.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="85.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="31.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="39.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.38"/>
+    <col customWidth="1" min="2" max="2" width="8.63"/>
+    <col customWidth="1" min="3" max="3" width="29.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -11648,6 +15120,2145 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="23.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="35.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="21.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="28.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="33.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="60.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B13"/>
+    <hyperlink r:id="rId3" ref="B15"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="61.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.63"/>
+    <col customWidth="1" min="2" max="2" width="24.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="44.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="14.63"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="38.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="21.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="29.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.63"/>
+    <col customWidth="1" min="2" max="2" width="30.25"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="60.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B8"/>
+    <hyperlink r:id="rId2" ref="B9"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="21.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="69.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="26.63"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="48.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1576</v>
       </c>
     </row>
   </sheetData>
@@ -11886,6 +17497,993 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="20.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="104.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="27.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="111.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="25.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="130.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="32.63"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="113.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.13"/>
+    <col customWidth="1" min="2" max="2" width="39.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="57.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="35.5"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="60.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="16.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="60.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>

--- a/osquery_ecs_project.xlsx
+++ b/osquery_ecs_project.xlsx
@@ -79,6 +79,32 @@
     <sheet state="visible" name="wmi_cli_event_consumers" sheetId="74" r:id="rId77"/>
     <sheet state="visible" name="wmi_script_event_consumers" sheetId="75" r:id="rId78"/>
     <sheet state="visible" name="registry" sheetId="76" r:id="rId79"/>
+    <sheet state="visible" name="crontab" sheetId="77" r:id="rId80"/>
+    <sheet state="visible" name="suid_bin" sheetId="78" r:id="rId81"/>
+    <sheet state="visible" name="authorized_keys" sheetId="79" r:id="rId82"/>
+    <sheet state="visible" name="dns_resolvers" sheetId="80" r:id="rId83"/>
+    <sheet state="visible" name="etc_hosts" sheetId="81" r:id="rId84"/>
+    <sheet state="visible" name="groups" sheetId="82" r:id="rId85"/>
+    <sheet state="visible" name="interface_addresses" sheetId="83" r:id="rId86"/>
+    <sheet state="visible" name="known_hosts" sheetId="84" r:id="rId87"/>
+    <sheet state="visible" name="last" sheetId="85" r:id="rId88"/>
+    <sheet state="visible" name="mounts" sheetId="86" r:id="rId89"/>
+    <sheet state="visible" name="system_controls" sheetId="87" r:id="rId90"/>
+    <sheet state="visible" name="user_groups" sheetId="88" r:id="rId91"/>
+    <sheet state="visible" name="user_ssh_keys" sheetId="89" r:id="rId92"/>
+    <sheet state="visible" name="uptime" sheetId="90" r:id="rId93"/>
+    <sheet state="visible" name="ssh_configs" sheetId="91" r:id="rId94"/>
+    <sheet state="visible" name="docker_container_mounts" sheetId="92" r:id="rId95"/>
+    <sheet state="visible" name="docker_container_networks" sheetId="93" r:id="rId96"/>
+    <sheet state="visible" name="docker_container_ports" sheetId="94" r:id="rId97"/>
+    <sheet state="visible" name="docker_container_processes" sheetId="95" r:id="rId98"/>
+    <sheet state="visible" name="docker_container_stats" sheetId="96" r:id="rId99"/>
+    <sheet state="visible" name="docker_containers" sheetId="97" r:id="rId100"/>
+    <sheet state="visible" name="docker_images" sheetId="98" r:id="rId101"/>
+    <sheet state="visible" name="docker_info" sheetId="99" r:id="rId102"/>
+    <sheet state="visible" name="docker_networks" sheetId="100" r:id="rId103"/>
+    <sheet state="visible" name="docker_version" sheetId="101" r:id="rId104"/>
+    <sheet state="visible" name="docker_volumes" sheetId="102" r:id="rId105"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -86,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="1682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="2377">
   <si>
     <t>Osquery Field Name</t>
   </si>
@@ -5132,6 +5158,2091 @@
   </si>
   <si>
     <t>Timestamp of the most recent registry write</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>cron.event</t>
+  </si>
+  <si>
+    <t>The job's event name (rare)</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>cron.minute</t>
+  </si>
+  <si>
+    <t>The exact minute for the job</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>cron.hour</t>
+  </si>
+  <si>
+    <t>The hour of the day for the job</t>
+  </si>
+  <si>
+    <t>day_of_month</t>
+  </si>
+  <si>
+    <t>cron.dayOfMonth</t>
+  </si>
+  <si>
+    <t>The day of the month for the job</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>cron.month</t>
+  </si>
+  <si>
+    <t>The month of the year for the job</t>
+  </si>
+  <si>
+    <t>day_of_week</t>
+  </si>
+  <si>
+    <t>cron.dayOfWeek</t>
+  </si>
+  <si>
+    <t>The day of the week for the job</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>cron.command</t>
+  </si>
+  <si>
+    <t>Raw command string</t>
+  </si>
+  <si>
+    <t>cron.path</t>
+  </si>
+  <si>
+    <t>File parsed where the cron job is defined</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
+  </si>
+  <si>
+    <t>Binary path</t>
+  </si>
+  <si>
+    <t>suid_bin.username</t>
+  </si>
+  <si>
+    <t>Binary owner username</t>
+  </si>
+  <si>
+    <t>suid_bin.groupname</t>
+  </si>
+  <si>
+    <t>Binary owner group</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>suid_bin.permissions</t>
+  </si>
+  <si>
+    <t>Binary permissions</t>
+  </si>
+  <si>
+    <t>-------------------------------------</t>
+  </si>
+  <si>
+    <t>authorized_keys.owner</t>
+  </si>
+  <si>
+    <t>The local owner of authorized_keys file (additional)</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>authorized_keys.key_algorithm</t>
+  </si>
+  <si>
+    <t>Key type</t>
+  </si>
+  <si>
+    <t>authorized_keys.key</t>
+  </si>
+  <si>
+    <t>Key encoded as base64</t>
+  </si>
+  <si>
+    <t>authorized_keys.login_options</t>
+  </si>
+  <si>
+    <t>Optional list of login options</t>
+  </si>
+  <si>
+    <t>authorized_keys.comment</t>
+  </si>
+  <si>
+    <t>Optional comment</t>
+  </si>
+  <si>
+    <t>key_file</t>
+  </si>
+  <si>
+    <t>authorized_keys.key_file</t>
+  </si>
+  <si>
+    <t>Path to the authorized_keys file</t>
+  </si>
+  <si>
+    <t>authorized_keys.pids_with_namespace</t>
+  </si>
+  <si>
+    <t>Pids that contain a namespace (additional, hidden)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>dns_resolvers.type_index</t>
+  </si>
+  <si>
+    <t>Address type index or order</t>
+  </si>
+  <si>
+    <t>dns_resolvers.address_type</t>
+  </si>
+  <si>
+    <t>Address type: sortlist, nameserver, search</t>
+  </si>
+  <si>
+    <t>dns_resolvers.resolver_address</t>
+  </si>
+  <si>
+    <t>Resolver IP/IPv6 address</t>
+  </si>
+  <si>
+    <t>netmask</t>
+  </si>
+  <si>
+    <t>dns_resolvers.sortlist_netmask</t>
+  </si>
+  <si>
+    <t>Address (sortlist) netmask length</t>
+  </si>
+  <si>
+    <t>dns_resolvers.resolver_options</t>
+  </si>
+  <si>
+    <t>Resolver options</t>
+  </si>
+  <si>
+    <t>dns_resolvers.pids_with_namespace</t>
+  </si>
+  <si>
+    <t>------------------------------------------------</t>
+  </si>
+  <si>
+    <t>etc_hosts.ip_address</t>
+  </si>
+  <si>
+    <t>IP address mapping</t>
+  </si>
+  <si>
+    <t>hostnames</t>
+  </si>
+  <si>
+    <t>etc_hosts.hostnames</t>
+  </si>
+  <si>
+    <t>Raw hosts mapping</t>
+  </si>
+  <si>
+    <t>etc_hosts.pids_with_namespace</t>
+  </si>
+  <si>
+    <t>groups.group_id</t>
+  </si>
+  <si>
+    <t>Unsigned int64 group ID</t>
+  </si>
+  <si>
+    <t>groups.group_id_signed</t>
+  </si>
+  <si>
+    <t>A signed int64 version of gid</t>
+  </si>
+  <si>
+    <t>groups.group_name</t>
+  </si>
+  <si>
+    <t>Canonical local group name</t>
+  </si>
+  <si>
+    <t>group_sid</t>
+  </si>
+  <si>
+    <t>groups.group_sid</t>
+  </si>
+  <si>
+    <t>Unique group ID (Windows specific)</t>
+  </si>
+  <si>
+    <t>groups.comment</t>
+  </si>
+  <si>
+    <t>Remarks or comments associated with the group</t>
+  </si>
+  <si>
+    <t>is_hidden</t>
+  </si>
+  <si>
+    <t>groups.is_hidden</t>
+  </si>
+  <si>
+    <t>IsHidden attribute set in OpenDirectory (Darwin)</t>
+  </si>
+  <si>
+    <t>groups.pids_with_namespace</t>
+  </si>
+  <si>
+    <t>--------------------------------</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>network.interface</t>
+  </si>
+  <si>
+    <t>Interface name</t>
+  </si>
+  <si>
+    <t>Specific address for the interface</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>network.netmask</t>
+  </si>
+  <si>
+    <t>Interface netmask</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>network.broadcast</t>
+  </si>
+  <si>
+    <t>Broadcast address for the interface</t>
+  </si>
+  <si>
+    <t>point_to_point</t>
+  </si>
+  <si>
+    <t>network.point_to_point</t>
+  </si>
+  <si>
+    <t>PtP address for the interface</t>
+  </si>
+  <si>
+    <t>network.address_type</t>
+  </si>
+  <si>
+    <t>Type of address. One of dhcp, manual, auto, other, unknown</t>
+  </si>
+  <si>
+    <t>friendly_name</t>
+  </si>
+  <si>
+    <t>network.friendly_name</t>
+  </si>
+  <si>
+    <t>The friendly display name of the interface (Windows specific)</t>
+  </si>
+  <si>
+    <t>----------------------------------------------</t>
+  </si>
+  <si>
+    <t>The local user that owns the known_hosts file</t>
+  </si>
+  <si>
+    <t>ssh.known_hosts.key</t>
+  </si>
+  <si>
+    <t>Parsed authorized keys line</t>
+  </si>
+  <si>
+    <t>ssh.known_hosts.file.path</t>
+  </si>
+  <si>
+    <t>Path to known_hosts file</t>
+  </si>
+  <si>
+    <t>--------------------------------------------</t>
+  </si>
+  <si>
+    <t>Entry username</t>
+  </si>
+  <si>
+    <t>tty</t>
+  </si>
+  <si>
+    <t>system.audit.tty</t>
+  </si>
+  <si>
+    <t>Entry terminal</t>
+  </si>
+  <si>
+    <t>system.audit.type</t>
+  </si>
+  <si>
+    <t>Entry type, according to ut_type types</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>system.audit.type_name</t>
+  </si>
+  <si>
+    <t>Entry type name, according to ut_type types</t>
+  </si>
+  <si>
+    <t>Entry timestamp</t>
+  </si>
+  <si>
+    <t>system.audit.host.name</t>
+  </si>
+  <si>
+    <t>Entry hostname</t>
+  </si>
+  <si>
+    <t>system.filesystem.device</t>
+  </si>
+  <si>
+    <t>Mounted device</t>
+  </si>
+  <si>
+    <t>device_alias</t>
+  </si>
+  <si>
+    <t>(No direct ECS mapping)</t>
+  </si>
+  <si>
+    <t>system.filesystem.mount_point</t>
+  </si>
+  <si>
+    <t>Mounted device path</t>
+  </si>
+  <si>
+    <t>system.filesystem.type</t>
+  </si>
+  <si>
+    <t>Mounted device type</t>
+  </si>
+  <si>
+    <t>blocks_size</t>
+  </si>
+  <si>
+    <t>system.filesystem.blocks.size</t>
+  </si>
+  <si>
+    <t>Block size in bytes</t>
+  </si>
+  <si>
+    <t>blocks</t>
+  </si>
+  <si>
+    <t>system.filesystem.blocks.used</t>
+  </si>
+  <si>
+    <t>Mounted device used blocks</t>
+  </si>
+  <si>
+    <t>blocks_free</t>
+  </si>
+  <si>
+    <t>system.filesystem.blocks.free</t>
+  </si>
+  <si>
+    <t>Mounted device free blocks</t>
+  </si>
+  <si>
+    <t>blocks_available</t>
+  </si>
+  <si>
+    <t>system.filesystem.blocks.available</t>
+  </si>
+  <si>
+    <t>Mounted device available blocks</t>
+  </si>
+  <si>
+    <t>inodes</t>
+  </si>
+  <si>
+    <t>system.filesystem.inodes.used</t>
+  </si>
+  <si>
+    <t>Mounted device used inodes</t>
+  </si>
+  <si>
+    <t>inodes_free</t>
+  </si>
+  <si>
+    <t>system.filesystem.inodes.free</t>
+  </si>
+  <si>
+    <t>Mounted device free inodes</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>system.filesystem.flags</t>
+  </si>
+  <si>
+    <t>Mounted device flags</t>
+  </si>
+  <si>
+    <t>---------------------------------------</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------</t>
+  </si>
+  <si>
+    <t>system.sysctl.name</t>
+  </si>
+  <si>
+    <t>Full sysctl MIB name</t>
+  </si>
+  <si>
+    <t>oid</t>
+  </si>
+  <si>
+    <t>system.sysctl.oid</t>
+  </si>
+  <si>
+    <t>Control MIB</t>
+  </si>
+  <si>
+    <t>subsystem</t>
+  </si>
+  <si>
+    <t>system.sysctl.subsystem</t>
+  </si>
+  <si>
+    <t>Subsystem ID, control type</t>
+  </si>
+  <si>
+    <t>current_value</t>
+  </si>
+  <si>
+    <t>system.sysctl.current_value</t>
+  </si>
+  <si>
+    <t>Value of setting</t>
+  </si>
+  <si>
+    <t>config_value</t>
+  </si>
+  <si>
+    <t>system.sysctl.config_value</t>
+  </si>
+  <si>
+    <t>The MIB value set in /etc/sysctl.conf</t>
+  </si>
+  <si>
+    <t>system.sysctl.type</t>
+  </si>
+  <si>
+    <t>field_name</t>
+  </si>
+  <si>
+    <t>system.sysctl.field_name (only for DARWIN)</t>
+  </si>
+  <si>
+    <t>Specific attribute of opaque type (DARWIN only)</t>
+  </si>
+  <si>
+    <t>Original Field Name</t>
+  </si>
+  <si>
+    <t>Suggested ECS Field Name</t>
+  </si>
+  <si>
+    <t>Aliases</t>
+  </si>
+  <si>
+    <t>user_id, user_identity, user_uid</t>
+  </si>
+  <si>
+    <t>group.id</t>
+  </si>
+  <si>
+    <t>Group ID</t>
+  </si>
+  <si>
+    <t>group_id, group_identity, group_gid</t>
+  </si>
+  <si>
+    <t>user_ssh_keys.user.id</t>
+  </si>
+  <si>
+    <t>The local user that owns the key file</t>
+  </si>
+  <si>
+    <t>user_ssh_keys.key.path</t>
+  </si>
+  <si>
+    <t>Path to key file</t>
+  </si>
+  <si>
+    <t>key_path, ssh_key_path</t>
+  </si>
+  <si>
+    <t>encrypted</t>
+  </si>
+  <si>
+    <t>user_ssh_keys.key.encrypted</t>
+  </si>
+  <si>
+    <t>Indicates if the key is encrypted (true/false)</t>
+  </si>
+  <si>
+    <t>is_encrypted</t>
+  </si>
+  <si>
+    <t>key_type</t>
+  </si>
+  <si>
+    <t>user_ssh_keys.key.type</t>
+  </si>
+  <si>
+    <t>The type of the private key</t>
+  </si>
+  <si>
+    <t>key_algorithm, ssh_key_type</t>
+  </si>
+  <si>
+    <t>------------------------------------------</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>uptime.days</t>
+  </si>
+  <si>
+    <t>Days of uptime</t>
+  </si>
+  <si>
+    <t>uptime_days</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>uptime.hours</t>
+  </si>
+  <si>
+    <t>Hours of uptime</t>
+  </si>
+  <si>
+    <t>uptime_hours</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>uptime.minutes</t>
+  </si>
+  <si>
+    <t>Minutes of uptime</t>
+  </si>
+  <si>
+    <t>uptime_minutes</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>uptime.seconds</t>
+  </si>
+  <si>
+    <t>Seconds of uptime</t>
+  </si>
+  <si>
+    <t>uptime_seconds</t>
+  </si>
+  <si>
+    <t>total_seconds</t>
+  </si>
+  <si>
+    <t>uptime.total_seconds</t>
+  </si>
+  <si>
+    <t>Total uptime in seconds</t>
+  </si>
+  <si>
+    <t>uptime_total_seconds</t>
+  </si>
+  <si>
+    <t>The local owner of the ssh_config file</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>ssh.config.block</t>
+  </si>
+  <si>
+    <t>The host or match block</t>
+  </si>
+  <si>
+    <t>ssh_block</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>ssh.config.option</t>
+  </si>
+  <si>
+    <t>The option and value</t>
+  </si>
+  <si>
+    <t>ssh_option</t>
+  </si>
+  <si>
+    <t>ssh_config_file</t>
+  </si>
+  <si>
+    <t>ssh.config.file.path</t>
+  </si>
+  <si>
+    <t>Path to the ssh_config file</t>
+  </si>
+  <si>
+    <t>Osquery Field</t>
+  </si>
+  <si>
+    <t>ECS Field</t>
+  </si>
+  <si>
+    <t>container.id</t>
+  </si>
+  <si>
+    <t>Container ID</t>
+  </si>
+  <si>
+    <t>container_id</t>
+  </si>
+  <si>
+    <t>docker.container.mount.type</t>
+  </si>
+  <si>
+    <t>Type of mount (bind, volume)</t>
+  </si>
+  <si>
+    <t>mount_type</t>
+  </si>
+  <si>
+    <t>docker.container.mount.name</t>
+  </si>
+  <si>
+    <t>Optional mount name</t>
+  </si>
+  <si>
+    <t>mount_name</t>
+  </si>
+  <si>
+    <t>docker.container.mount.source</t>
+  </si>
+  <si>
+    <t>Source path on host</t>
+  </si>
+  <si>
+    <t>source_path</t>
+  </si>
+  <si>
+    <t>docker.container.mount.destination</t>
+  </si>
+  <si>
+    <t>Destination path inside container</t>
+  </si>
+  <si>
+    <t>destination_path</t>
+  </si>
+  <si>
+    <t>docker.container.mount.driver</t>
+  </si>
+  <si>
+    <t>Driver providing the mount</t>
+  </si>
+  <si>
+    <t>mount_driver</t>
+  </si>
+  <si>
+    <t>docker.container.mount.mode</t>
+  </si>
+  <si>
+    <t>Mount options (rw, ro)</t>
+  </si>
+  <si>
+    <t>mount_mode</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>docker.container.mount.rw</t>
+  </si>
+  <si>
+    <t>1 if read/write, 0 otherwise</t>
+  </si>
+  <si>
+    <t>read_write</t>
+  </si>
+  <si>
+    <t>propagation</t>
+  </si>
+  <si>
+    <t>docker.container.mount.propagation</t>
+  </si>
+  <si>
+    <t>Mount propagation</t>
+  </si>
+  <si>
+    <t>mount_propagation</t>
+  </si>
+  <si>
+    <t>docker.container.network.name</t>
+  </si>
+  <si>
+    <t>Network name</t>
+  </si>
+  <si>
+    <t>network_id</t>
+  </si>
+  <si>
+    <t>docker.container.network.id</t>
+  </si>
+  <si>
+    <t>Network ID</t>
+  </si>
+  <si>
+    <t>endpoint_id</t>
+  </si>
+  <si>
+    <t>docker.container.network.endpoint_id</t>
+  </si>
+  <si>
+    <t>Endpoint ID</t>
+  </si>
+  <si>
+    <t>gateway</t>
+  </si>
+  <si>
+    <t>docker.container.network.gateway</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>docker.container.network.ip_address</t>
+  </si>
+  <si>
+    <t>IP address</t>
+  </si>
+  <si>
+    <t>ip_prefix_len</t>
+  </si>
+  <si>
+    <t>docker.container.network.ip_prefix_len</t>
+  </si>
+  <si>
+    <t>IP subnet prefix length</t>
+  </si>
+  <si>
+    <t>ip_prefix_length</t>
+  </si>
+  <si>
+    <t>ipv6_gateway</t>
+  </si>
+  <si>
+    <t>docker.container.network.ipv6_gateway</t>
+  </si>
+  <si>
+    <t>IPv6 gateway</t>
+  </si>
+  <si>
+    <t>ipv6_address</t>
+  </si>
+  <si>
+    <t>docker.container.network.ipv6_address</t>
+  </si>
+  <si>
+    <t>IPv6 address</t>
+  </si>
+  <si>
+    <t>ipv6_prefix_len</t>
+  </si>
+  <si>
+    <t>docker.container.network.ipv6_prefix_len</t>
+  </si>
+  <si>
+    <t>IPv6 subnet prefix length</t>
+  </si>
+  <si>
+    <t>ipv6_prefix_length</t>
+  </si>
+  <si>
+    <t>mac_address</t>
+  </si>
+  <si>
+    <t>docker.container.network.mac_address</t>
+  </si>
+  <si>
+    <t>MAC address</t>
+  </si>
+  <si>
+    <t>docker.container.port.type</t>
+  </si>
+  <si>
+    <t>Protocol (tcp, udp)</t>
+  </si>
+  <si>
+    <t>port_type</t>
+  </si>
+  <si>
+    <t>docker.container.port.number</t>
+  </si>
+  <si>
+    <t>Port inside the container</t>
+  </si>
+  <si>
+    <t>port_number</t>
+  </si>
+  <si>
+    <t>host_ip</t>
+  </si>
+  <si>
+    <t>docker.container.port.host.ip</t>
+  </si>
+  <si>
+    <t>Host IP address on which public port is listening</t>
+  </si>
+  <si>
+    <t>host_port</t>
+  </si>
+  <si>
+    <t>docker.container.port.host.port</t>
+  </si>
+  <si>
+    <t>Host port</t>
+  </si>
+  <si>
+    <t>-----------------------------------</t>
+  </si>
+  <si>
+    <t>Process ID</t>
+  </si>
+  <si>
+    <t>process_pid</t>
+  </si>
+  <si>
+    <t>process_name</t>
+  </si>
+  <si>
+    <t>process_args</t>
+  </si>
+  <si>
+    <t>process_state</t>
+  </si>
+  <si>
+    <t>process.uid</t>
+  </si>
+  <si>
+    <t>process_user_id</t>
+  </si>
+  <si>
+    <t>process.gid</t>
+  </si>
+  <si>
+    <t>process_group_id</t>
+  </si>
+  <si>
+    <t>process.euid</t>
+  </si>
+  <si>
+    <t>Effective user ID</t>
+  </si>
+  <si>
+    <t>process_effective_user_id</t>
+  </si>
+  <si>
+    <t>process.egid</t>
+  </si>
+  <si>
+    <t>Effective group ID</t>
+  </si>
+  <si>
+    <t>process_effective_group_id</t>
+  </si>
+  <si>
+    <t>process.suid</t>
+  </si>
+  <si>
+    <t>Saved user ID</t>
+  </si>
+  <si>
+    <t>process_saved_user_id</t>
+  </si>
+  <si>
+    <t>process.sgid</t>
+  </si>
+  <si>
+    <t>Saved group ID</t>
+  </si>
+  <si>
+    <t>process_saved_group_id</t>
+  </si>
+  <si>
+    <t>process.memory.unpageable_size</t>
+  </si>
+  <si>
+    <t>process_unpageable_memory_size</t>
+  </si>
+  <si>
+    <t>process.memory.private_size</t>
+  </si>
+  <si>
+    <t>process_private_memory_size</t>
+  </si>
+  <si>
+    <t>process.memory.virtual_size</t>
+  </si>
+  <si>
+    <t>Total virtual memory size</t>
+  </si>
+  <si>
+    <t>process_virtual_memory_size, process_phys_footprint</t>
+  </si>
+  <si>
+    <t>process.start_time.sec</t>
+  </si>
+  <si>
+    <t>Process start in seconds since boot (non-sleeping)</t>
+  </si>
+  <si>
+    <t>process_start_time</t>
+  </si>
+  <si>
+    <t>process_parent_pid</t>
+  </si>
+  <si>
+    <t>process.process_group.pid</t>
+  </si>
+  <si>
+    <t>process_group_pid</t>
+  </si>
+  <si>
+    <t>process_thread_count</t>
+  </si>
+  <si>
+    <t>process_nice</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>process_user_name</t>
+  </si>
+  <si>
+    <t>process.cpu_time.seconds</t>
+  </si>
+  <si>
+    <t>Cumulative CPU time</t>
+  </si>
+  <si>
+    <t>process_cpu_time</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>process.cpu_percent</t>
+  </si>
+  <si>
+    <t>CPU utilization as percentage</t>
+  </si>
+  <si>
+    <t>process_cpu_percent</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>process.memory_percent</t>
+  </si>
+  <si>
+    <t>Memory utilization as percentage</t>
+  </si>
+  <si>
+    <t>process_memory_percent</t>
+  </si>
+  <si>
+    <t>container.name</t>
+  </si>
+  <si>
+    <t>Container name</t>
+  </si>
+  <si>
+    <t>container_name</t>
+  </si>
+  <si>
+    <t>pids</t>
+  </si>
+  <si>
+    <t>process.count</t>
+  </si>
+  <si>
+    <t>Number of processes</t>
+  </si>
+  <si>
+    <t>process_count</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>UNIX time when stats were read</t>
+  </si>
+  <si>
+    <t>preread</t>
+  </si>
+  <si>
+    <t>UNIX time when stats were last read</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>Difference between read and preread in nano-seconds</t>
+  </si>
+  <si>
+    <t>disk_read</t>
+  </si>
+  <si>
+    <t>system.disk.read.bytes</t>
+  </si>
+  <si>
+    <t>Total disk read bytes</t>
+  </si>
+  <si>
+    <t>disk_read_bytes</t>
+  </si>
+  <si>
+    <t>disk_write</t>
+  </si>
+  <si>
+    <t>system.disk.write.bytes</t>
+  </si>
+  <si>
+    <t>Total disk write bytes</t>
+  </si>
+  <si>
+    <t>disk_write_bytes</t>
+  </si>
+  <si>
+    <t>num_procs</t>
+  </si>
+  <si>
+    <t>system.process.count</t>
+  </si>
+  <si>
+    <t>Number of processors</t>
+  </si>
+  <si>
+    <t>cpu_total_usage</t>
+  </si>
+  <si>
+    <t>system.cpu.total.norm.pct</t>
+  </si>
+  <si>
+    <t>Total CPU usage normalized as a percentage</t>
+  </si>
+  <si>
+    <t>cpu_total_usage_percent</t>
+  </si>
+  <si>
+    <t>cpu_kernelmode_usage</t>
+  </si>
+  <si>
+    <t>system.cpu.kernel.norm.pct</t>
+  </si>
+  <si>
+    <t>CPU kernel mode usage normalized as a percentage</t>
+  </si>
+  <si>
+    <t>cpu_kernelmode_usage_percent</t>
+  </si>
+  <si>
+    <t>cpu_usermode_usage</t>
+  </si>
+  <si>
+    <t>system.cpu.user.norm.pct</t>
+  </si>
+  <si>
+    <t>CPU user mode usage normalized as a percentage</t>
+  </si>
+  <si>
+    <t>cpu_usermode_usage_percent</t>
+  </si>
+  <si>
+    <t>system_cpu_usage</t>
+  </si>
+  <si>
+    <t>system.cpu.system.norm.pct</t>
+  </si>
+  <si>
+    <t>CPU system usage normalized as a percentage</t>
+  </si>
+  <si>
+    <t>system_cpu_usage_percent</t>
+  </si>
+  <si>
+    <t>online_cpus</t>
+  </si>
+  <si>
+    <t>Online CPUs</t>
+  </si>
+  <si>
+    <t>pre_cpu_total_usage</t>
+  </si>
+  <si>
+    <t>Last read total CPU usage</t>
+  </si>
+  <si>
+    <t>pre_cpu_kernelmode_usage</t>
+  </si>
+  <si>
+    <t>Last read CPU kernel mode usage</t>
+  </si>
+  <si>
+    <t>pre_cpu_usermode_usage</t>
+  </si>
+  <si>
+    <t>Last read CPU user mode usage</t>
+  </si>
+  <si>
+    <t>pre_system_cpu_usage</t>
+  </si>
+  <si>
+    <t>Last read CPU system usage</t>
+  </si>
+  <si>
+    <t>pre_online_cpus</t>
+  </si>
+  <si>
+    <t>Last read online CPUs</t>
+  </si>
+  <si>
+    <t>memory_usage</t>
+  </si>
+  <si>
+    <t>system.memory.usage.bytes</t>
+  </si>
+  <si>
+    <t>Memory usage</t>
+  </si>
+  <si>
+    <t>memory_usage_bytes</t>
+  </si>
+  <si>
+    <t>memory_cached</t>
+  </si>
+  <si>
+    <t>system.memory.cached.bytes</t>
+  </si>
+  <si>
+    <t>Memory cached</t>
+  </si>
+  <si>
+    <t>memory_cached_bytes</t>
+  </si>
+  <si>
+    <t>memory_max_usage</t>
+  </si>
+  <si>
+    <t>system.memory.max_usage.bytes</t>
+  </si>
+  <si>
+    <t>Memory maximum usage</t>
+  </si>
+  <si>
+    <t>memory_max_usage_bytes</t>
+  </si>
+  <si>
+    <t>memory_limit</t>
+  </si>
+  <si>
+    <t>system.memory.limit.bytes</t>
+  </si>
+  <si>
+    <t>Memory limit</t>
+  </si>
+  <si>
+    <t>memory_limit_bytes</t>
+  </si>
+  <si>
+    <t>network_rx_bytes</t>
+  </si>
+  <si>
+    <t>network.in.bytes</t>
+  </si>
+  <si>
+    <t>Total network bytes read</t>
+  </si>
+  <si>
+    <t>network_in_bytes</t>
+  </si>
+  <si>
+    <t>network_tx_bytes</t>
+  </si>
+  <si>
+    <t>network.out.bytes</t>
+  </si>
+  <si>
+    <t>Total network bytes transmitted</t>
+  </si>
+  <si>
+    <t>network_out_bytes</t>
+  </si>
+  <si>
+    <t>docker.containers.id</t>
+  </si>
+  <si>
+    <t>docker_container_id</t>
+  </si>
+  <si>
+    <t>docker.containers.name</t>
+  </si>
+  <si>
+    <t>docker_container_name</t>
+  </si>
+  <si>
+    <t>docker.containers.image</t>
+  </si>
+  <si>
+    <t>Docker image (name) used to launch this container</t>
+  </si>
+  <si>
+    <t>docker_container_image</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>docker.containers.image_id</t>
+  </si>
+  <si>
+    <t>Docker image ID</t>
+  </si>
+  <si>
+    <t>docker_container_image_id</t>
+  </si>
+  <si>
+    <t>docker.containers.command</t>
+  </si>
+  <si>
+    <t>Command with arguments</t>
+  </si>
+  <si>
+    <t>docker_container_command</t>
+  </si>
+  <si>
+    <t>docker.containers.created</t>
+  </si>
+  <si>
+    <t>Time of creation as UNIX time</t>
+  </si>
+  <si>
+    <t>docker_container_created</t>
+  </si>
+  <si>
+    <t>docker.containers.state</t>
+  </si>
+  <si>
+    <t>Container state (created, restarting, running, removing, paused, exited, dead)</t>
+  </si>
+  <si>
+    <t>docker_container_state</t>
+  </si>
+  <si>
+    <t>docker.containers.status</t>
+  </si>
+  <si>
+    <t>Container status information</t>
+  </si>
+  <si>
+    <t>docker_container_status</t>
+  </si>
+  <si>
+    <t>docker.containers.pid</t>
+  </si>
+  <si>
+    <t>Identifier of the initial process</t>
+  </si>
+  <si>
+    <t>docker_container_pid</t>
+  </si>
+  <si>
+    <t>docker.containers.path</t>
+  </si>
+  <si>
+    <t>Container path</t>
+  </si>
+  <si>
+    <t>docker_container_path</t>
+  </si>
+  <si>
+    <t>config_entrypoint</t>
+  </si>
+  <si>
+    <t>docker.containers.config_entrypoint</t>
+  </si>
+  <si>
+    <t>Container entrypoint(s)</t>
+  </si>
+  <si>
+    <t>docker_container_config_entrypoint</t>
+  </si>
+  <si>
+    <t>started_at</t>
+  </si>
+  <si>
+    <t>docker.containers.started_at</t>
+  </si>
+  <si>
+    <t>Container start time as string</t>
+  </si>
+  <si>
+    <t>docker_container_started_at</t>
+  </si>
+  <si>
+    <t>finished_at</t>
+  </si>
+  <si>
+    <t>docker.containers.finished_at</t>
+  </si>
+  <si>
+    <t>Container finish time as string</t>
+  </si>
+  <si>
+    <t>docker_container_finished_at</t>
+  </si>
+  <si>
+    <t>docker.containers.privileged</t>
+  </si>
+  <si>
+    <t>Is the container privileged</t>
+  </si>
+  <si>
+    <t>docker_container_privileged</t>
+  </si>
+  <si>
+    <t>security_options</t>
+  </si>
+  <si>
+    <t>docker.containers.security_options</t>
+  </si>
+  <si>
+    <t>List of container security options</t>
+  </si>
+  <si>
+    <t>docker_container_security_options</t>
+  </si>
+  <si>
+    <t>env_variables</t>
+  </si>
+  <si>
+    <t>docker.containers.env_variables</t>
+  </si>
+  <si>
+    <t>Container environmental variables</t>
+  </si>
+  <si>
+    <t>docker_container_env_variables</t>
+  </si>
+  <si>
+    <t>readonly_rootfs</t>
+  </si>
+  <si>
+    <t>docker.containers.readonly_rootfs</t>
+  </si>
+  <si>
+    <t>Is the root filesystem mounted as read only</t>
+  </si>
+  <si>
+    <t>docker_container_readonly_rootfs</t>
+  </si>
+  <si>
+    <t>cgroup_namespace</t>
+  </si>
+  <si>
+    <t>docker.containers.cgroup_namespace</t>
+  </si>
+  <si>
+    <t>cgroup namespace</t>
+  </si>
+  <si>
+    <t>docker_container_cgroup_namespace</t>
+  </si>
+  <si>
+    <t>ipc_namespace</t>
+  </si>
+  <si>
+    <t>docker.containers.ipc_namespace</t>
+  </si>
+  <si>
+    <t>IPC namespace</t>
+  </si>
+  <si>
+    <t>docker_container_ipc_namespace</t>
+  </si>
+  <si>
+    <t>mnt_namespace</t>
+  </si>
+  <si>
+    <t>docker.containers.mnt_namespace</t>
+  </si>
+  <si>
+    <t>Mount namespace</t>
+  </si>
+  <si>
+    <t>docker_container_mnt_namespace</t>
+  </si>
+  <si>
+    <t>docker.containers.net_namespace</t>
+  </si>
+  <si>
+    <t>Network namespace</t>
+  </si>
+  <si>
+    <t>docker_container_net_namespace</t>
+  </si>
+  <si>
+    <t>pid_namespace</t>
+  </si>
+  <si>
+    <t>docker.containers.pid_namespace</t>
+  </si>
+  <si>
+    <t>PID namespace</t>
+  </si>
+  <si>
+    <t>docker_container_pid_namespace</t>
+  </si>
+  <si>
+    <t>user_namespace</t>
+  </si>
+  <si>
+    <t>docker.containers.user_namespace</t>
+  </si>
+  <si>
+    <t>User namespace</t>
+  </si>
+  <si>
+    <t>docker_container_user_namespace</t>
+  </si>
+  <si>
+    <t>uts_namespace</t>
+  </si>
+  <si>
+    <t>docker.containers.uts_namespace</t>
+  </si>
+  <si>
+    <t>UTS namespace</t>
+  </si>
+  <si>
+    <t>docker_container_uts_namespace</t>
+  </si>
+  <si>
+    <t>docker.images.id</t>
+  </si>
+  <si>
+    <t>Image ID</t>
+  </si>
+  <si>
+    <t>docker_image_id</t>
+  </si>
+  <si>
+    <t>docker.images.created</t>
+  </si>
+  <si>
+    <t>docker_image_created</t>
+  </si>
+  <si>
+    <t>size_bytes</t>
+  </si>
+  <si>
+    <t>docker.images.size_bytes</t>
+  </si>
+  <si>
+    <t>Size of image in bytes</t>
+  </si>
+  <si>
+    <t>docker_image_size_bytes</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>docker.images.tags</t>
+  </si>
+  <si>
+    <t>Comma-separated list of repository tags</t>
+  </si>
+  <si>
+    <t>docker_image_tags</t>
+  </si>
+  <si>
+    <t>docker.info.id</t>
+  </si>
+  <si>
+    <t>Docker system ID</t>
+  </si>
+  <si>
+    <t>docker_id</t>
+  </si>
+  <si>
+    <t>containers</t>
+  </si>
+  <si>
+    <t>docker.info.containers</t>
+  </si>
+  <si>
+    <t>Total number of containers</t>
+  </si>
+  <si>
+    <t>docker_containers</t>
+  </si>
+  <si>
+    <t>containers_running</t>
+  </si>
+  <si>
+    <t>docker.info.containers_running</t>
+  </si>
+  <si>
+    <t>Number of containers currently running</t>
+  </si>
+  <si>
+    <t>docker_containers_running</t>
+  </si>
+  <si>
+    <t>containers_paused</t>
+  </si>
+  <si>
+    <t>docker.info.containers_paused</t>
+  </si>
+  <si>
+    <t>Number of containers in paused state</t>
+  </si>
+  <si>
+    <t>docker_containers_paused</t>
+  </si>
+  <si>
+    <t>containers_stopped</t>
+  </si>
+  <si>
+    <t>docker.info.containers_stopped</t>
+  </si>
+  <si>
+    <t>Number of containers in stopped state</t>
+  </si>
+  <si>
+    <t>docker_containers_stopped</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>docker.info.images</t>
+  </si>
+  <si>
+    <t>Number of images</t>
+  </si>
+  <si>
+    <t>docker_images</t>
+  </si>
+  <si>
+    <t>storage_driver</t>
+  </si>
+  <si>
+    <t>docker.info.storage_driver</t>
+  </si>
+  <si>
+    <t>Storage driver</t>
+  </si>
+  <si>
+    <t>docker_storage_driver</t>
+  </si>
+  <si>
+    <t>docker.info.memory_limit</t>
+  </si>
+  <si>
+    <t>1 if memory limit support is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_memory_limit</t>
+  </si>
+  <si>
+    <t>swap_limit</t>
+  </si>
+  <si>
+    <t>docker.info.swap_limit</t>
+  </si>
+  <si>
+    <t>1 if swap limit support is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_swap_limit</t>
+  </si>
+  <si>
+    <t>kernel_memory</t>
+  </si>
+  <si>
+    <t>docker.info.kernel_memory</t>
+  </si>
+  <si>
+    <t>1 if kernel memory limit support is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_kernel_memory</t>
+  </si>
+  <si>
+    <t>cpu_cfs_period</t>
+  </si>
+  <si>
+    <t>docker.info.cpu_cfs_period</t>
+  </si>
+  <si>
+    <t>1 if CPU Completely Fair Scheduler (CFS) period support is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_cpu_cfs_period</t>
+  </si>
+  <si>
+    <t>cpu_cfs_quota</t>
+  </si>
+  <si>
+    <t>docker.info.cpu_cfs_quota</t>
+  </si>
+  <si>
+    <t>1 if CPU Completely Fair Scheduler (CFS) quota support is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_cpu_cfs_quota</t>
+  </si>
+  <si>
+    <t>cpu_shares</t>
+  </si>
+  <si>
+    <t>docker.info.cpu_shares</t>
+  </si>
+  <si>
+    <t>1 if CPU share weighting support is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_cpu_shares</t>
+  </si>
+  <si>
+    <t>cpu_set</t>
+  </si>
+  <si>
+    <t>docker.info.cpu_set</t>
+  </si>
+  <si>
+    <t>1 if CPU set selection support is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_cpu_set</t>
+  </si>
+  <si>
+    <t>ipv4_forwarding</t>
+  </si>
+  <si>
+    <t>docker.info.ipv4_forwarding</t>
+  </si>
+  <si>
+    <t>1 if IPv4 forwarding is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_ipv4_forwarding</t>
+  </si>
+  <si>
+    <t>bridge_nf_iptables</t>
+  </si>
+  <si>
+    <t>docker.info.bridge_nf_iptables</t>
+  </si>
+  <si>
+    <t>1 if bridge netfilter iptables is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_bridge_nf_iptables</t>
+  </si>
+  <si>
+    <t>bridge_nf_ip6tables</t>
+  </si>
+  <si>
+    <t>docker.info.bridge_nf_ip6tables</t>
+  </si>
+  <si>
+    <t>1 if bridge netfilter ip6tables is enabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_bridge_nf_ip6tables</t>
+  </si>
+  <si>
+    <t>oom_kill_disable</t>
+  </si>
+  <si>
+    <t>docker.info.oom_kill_disable</t>
+  </si>
+  <si>
+    <t>1 if Out-of-memory kill is disabled, 0 otherwise</t>
+  </si>
+  <si>
+    <t>docker_oom_kill_disable</t>
+  </si>
+  <si>
+    <t>logging_driver</t>
+  </si>
+  <si>
+    <t>docker.info.logging_driver</t>
+  </si>
+  <si>
+    <t>Logging driver</t>
+  </si>
+  <si>
+    <t>docker_logging_driver</t>
+  </si>
+  <si>
+    <t>cgroup_driver</t>
+  </si>
+  <si>
+    <t>docker.info.cgroup_driver</t>
+  </si>
+  <si>
+    <t>Control groups driver</t>
+  </si>
+  <si>
+    <t>docker_cgroup_driver</t>
+  </si>
+  <si>
+    <t>docker.info.kernel_version</t>
+  </si>
+  <si>
+    <t>Kernel version</t>
+  </si>
+  <si>
+    <t>docker_kernel_version</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>docker.info.os</t>
+  </si>
+  <si>
+    <t>Operating system</t>
+  </si>
+  <si>
+    <t>docker_os</t>
+  </si>
+  <si>
+    <t>os_type</t>
+  </si>
+  <si>
+    <t>docker.info.os_type</t>
+  </si>
+  <si>
+    <t>Operating system type</t>
+  </si>
+  <si>
+    <t>docker_os_type</t>
+  </si>
+  <si>
+    <t>docker.info.architecture</t>
+  </si>
+  <si>
+    <t>Hardware architecture</t>
+  </si>
+  <si>
+    <t>docker_architecture</t>
+  </si>
+  <si>
+    <t>cpus</t>
+  </si>
+  <si>
+    <t>docker.info.cpus</t>
+  </si>
+  <si>
+    <t>Number of CPUs</t>
+  </si>
+  <si>
+    <t>docker_cpus</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>docker.info.memory</t>
+  </si>
+  <si>
+    <t>Total memory</t>
+  </si>
+  <si>
+    <t>docker_memory</t>
+  </si>
+  <si>
+    <t>http_proxy</t>
+  </si>
+  <si>
+    <t>docker.info.http_proxy</t>
+  </si>
+  <si>
+    <t>HTTP proxy</t>
+  </si>
+  <si>
+    <t>docker_http_proxy</t>
+  </si>
+  <si>
+    <t>https_proxy</t>
+  </si>
+  <si>
+    <t>docker.info.https_proxy</t>
+  </si>
+  <si>
+    <t>HTTPS proxy</t>
+  </si>
+  <si>
+    <t>docker_https_proxy</t>
+  </si>
+  <si>
+    <t>no_proxy</t>
+  </si>
+  <si>
+    <t>docker.info.no_proxy</t>
+  </si>
+  <si>
+    <t>Comma-separated list of domain extensions proxy should not be used for</t>
+  </si>
+  <si>
+    <t>docker_no_proxy</t>
+  </si>
+  <si>
+    <t>docker.info.name</t>
+  </si>
+  <si>
+    <t>Name of the Docker host</t>
+  </si>
+  <si>
+    <t>docker_name</t>
+  </si>
+  <si>
+    <t>server_version</t>
+  </si>
+  <si>
+    <t>docker.info.server_version</t>
+  </si>
+  <si>
+    <t>Server version</t>
+  </si>
+  <si>
+    <t>docker_server_version</t>
+  </si>
+  <si>
+    <t>root_dir</t>
+  </si>
+  <si>
+    <t>docker.info.root_dir</t>
+  </si>
+  <si>
+    <t>Docker root directory</t>
+  </si>
+  <si>
+    <t>docker_root_dir</t>
+  </si>
+  <si>
+    <t>network.id</t>
+  </si>
+  <si>
+    <t>network.name</t>
+  </si>
+  <si>
+    <t>network.driver</t>
+  </si>
+  <si>
+    <t>Network driver</t>
+  </si>
+  <si>
+    <t>network.created</t>
+  </si>
+  <si>
+    <t>enable_ipv6</t>
+  </si>
+  <si>
+    <t>network.ipv6.enabled</t>
+  </si>
+  <si>
+    <t>1 if IPv6 is enabled on this network, 0 otherwise</t>
+  </si>
+  <si>
+    <t>subnet</t>
+  </si>
+  <si>
+    <t>network.subnet</t>
+  </si>
+  <si>
+    <t>Network subnet</t>
+  </si>
+  <si>
+    <t>network.gateway</t>
+  </si>
+  <si>
+    <t>Network gateway</t>
+  </si>
+  <si>
+    <t>docker.version.number</t>
+  </si>
+  <si>
+    <t>Docker version</t>
+  </si>
+  <si>
+    <t>docker_version</t>
+  </si>
+  <si>
+    <t>api_version</t>
+  </si>
+  <si>
+    <t>docker.api.version</t>
+  </si>
+  <si>
+    <t>API version</t>
+  </si>
+  <si>
+    <t>docker_api_version</t>
+  </si>
+  <si>
+    <t>min_api_version</t>
+  </si>
+  <si>
+    <t>docker.api.min_version</t>
+  </si>
+  <si>
+    <t>Minimum API version supported</t>
+  </si>
+  <si>
+    <t>docker_min_api_version</t>
+  </si>
+  <si>
+    <t>git_commit</t>
+  </si>
+  <si>
+    <t>docker.git.commit</t>
+  </si>
+  <si>
+    <t>Docker build git commit</t>
+  </si>
+  <si>
+    <t>docker_git_commit</t>
+  </si>
+  <si>
+    <t>go_version</t>
+  </si>
+  <si>
+    <t>docker.go.version</t>
+  </si>
+  <si>
+    <t>Go version</t>
+  </si>
+  <si>
+    <t>docker_go_version</t>
+  </si>
+  <si>
+    <t>docker.os</t>
+  </si>
+  <si>
+    <t>docker.architecture</t>
+  </si>
+  <si>
+    <t>docker.kernel.version</t>
+  </si>
+  <si>
+    <t>build_time</t>
+  </si>
+  <si>
+    <t>docker.build.time</t>
+  </si>
+  <si>
+    <t>Build time</t>
+  </si>
+  <si>
+    <t>docker_build_time</t>
+  </si>
+  <si>
+    <t>Volume name</t>
+  </si>
+  <si>
+    <t>volume_name</t>
+  </si>
+  <si>
+    <t>docker.volume.driver</t>
+  </si>
+  <si>
+    <t>Volume driver</t>
+  </si>
+  <si>
+    <t>volume_driver</t>
+  </si>
+  <si>
+    <t>mount_point</t>
+  </si>
+  <si>
+    <t>docker.volume.mount_point</t>
+  </si>
+  <si>
+    <t>Mount point</t>
+  </si>
+  <si>
+    <t>docker.volume.type</t>
+  </si>
+  <si>
+    <t>Volume type</t>
+  </si>
+  <si>
+    <t>volume_type</t>
   </si>
 </sst>
 </file>
@@ -5202,6 +7313,18 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing100.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing101.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing102.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5493,11 +7616,103 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing77.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing78.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing79.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing80.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing81.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing82.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing83.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing84.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing85.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing86.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing87.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing88.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing89.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing90.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing91.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing92.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing93.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing94.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing95.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing96.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing97.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing98.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing99.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6245,6 +8460,496 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="36.25"/>
+    <col customWidth="1" min="5" max="5" width="18.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="24.63"/>
+    <col customWidth="1" min="5" max="5" width="19.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="11.38"/>
+    <col customWidth="1" min="2" max="2" width="21.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="18.25"/>
+    <col customWidth="1" min="5" max="5" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -18484,6 +21189,413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="13.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="31.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="16.5"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="23.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -18782,6 +21894,1336 @@
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col customWidth="1" min="2" max="2" width="28.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="38.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="38.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col customWidth="1" min="2" max="2" width="23.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="38.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="26.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="45.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="20.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="34.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="19.0"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="33.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="26.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="25.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="33.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="36.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="2" max="2" width="21.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="10.38"/>
+    <col customWidth="1" min="5" max="5" width="27.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="22.88"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="32.63"/>
+    <col customWidth="1" min="5" max="5" width="24.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18902,4 +23344,3007 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="24.25"/>
+    <col customWidth="1" min="5" max="5" width="17.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="14.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="28.38"/>
+    <col customWidth="1" min="5" max="5" width="12.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="11.38"/>
+    <col customWidth="1" min="2" max="2" width="27.5"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="25.13"/>
+    <col customWidth="1" min="5" max="5" width="15.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B10"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.25"/>
+    <col customWidth="1" min="2" max="2" width="31.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="23.25"/>
+    <col customWidth="1" min="5" max="5" width="14.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B5"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="11.38"/>
+    <col customWidth="1" min="2" max="2" width="23.38"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="36.25"/>
+    <col customWidth="1" min="5" max="5" width="13.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="11.38"/>
+    <col customWidth="1" min="2" max="2" width="26.25"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="38.38"/>
+    <col customWidth="1" min="5" max="5" width="41.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.13"/>
+    <col customWidth="1" min="2" max="2" width="26.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="41.25"/>
+    <col customWidth="1" min="5" max="5" width="25.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="29.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="58.0"/>
+    <col customWidth="1" min="5" max="5" width="29.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="2" max="2" width="20.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="30.5"/>
+    <col customWidth="1" min="5" max="5" width="20.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.63"/>
+    <col customWidth="1" min="2" max="2" width="24.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="60.88"/>
+    <col customWidth="1" min="5" max="5" width="21.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>